--- a/tmp/excel_import.xlsx
+++ b/tmp/excel_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\oke data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ECDF06F3-9C49-45E3-98B7-B1E242F3904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5413F9A-DFEA-401A-8BE0-2D1C821A6CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Cetak_2023-11 (1)" sheetId="1" r:id="rId1"/>
@@ -2530,7 +2530,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3023,7 +3026,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3031,9 +3034,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3388,17 +3395,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF484"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N25" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
@@ -3421,7 +3428,7 @@
     <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -3433,7 +3440,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3505,10 +3512,10 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -3531,7 +3538,7 @@
       <c r="A2" s="2">
         <v>30630</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>45238</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3601,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB2" s="2">
@@ -3623,7 +3630,7 @@
       <c r="A3" s="2">
         <v>30629</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>45238</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3691,10 +3698,10 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB3" s="2">
@@ -3713,7 +3720,7 @@
       <c r="A4" s="2">
         <v>30628</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>45238</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3783,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB4" s="2">
@@ -3805,7 +3812,7 @@
       <c r="A5" s="2">
         <v>30627</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>45238</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3875,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB5" s="2">
@@ -3897,7 +3904,7 @@
       <c r="A6" s="2">
         <v>30626</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>45238</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3965,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB6" s="2">
@@ -3987,7 +3994,7 @@
       <c r="A7" s="2">
         <v>30625</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>45238</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4055,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB7" s="2">
@@ -4077,7 +4084,7 @@
       <c r="A8" s="2">
         <v>30624</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>45238</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4147,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB8" s="2">
@@ -4169,7 +4176,7 @@
       <c r="A9" s="2">
         <v>30623</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>45238</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -4239,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB9" s="2">
@@ -4263,7 +4270,7 @@
       <c r="A10" s="2">
         <v>30622</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>45238</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -4333,10 +4340,10 @@
       <c r="Y10" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB10" s="2">
@@ -4357,7 +4364,7 @@
       <c r="A11" s="2">
         <v>30621</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>45238</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4427,10 +4434,10 @@
       <c r="Y11" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AA11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB11" s="2">
@@ -4451,7 +4458,7 @@
       <c r="A12" s="2">
         <v>30620</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>45238</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4523,10 +4530,10 @@
       <c r="Y12" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="Z12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AA12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB12" s="2">
@@ -4547,7 +4554,7 @@
       <c r="A13" s="2">
         <v>30619</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>45238</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -4619,10 +4626,10 @@
       <c r="Y13" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB13" s="2">
@@ -4643,7 +4650,7 @@
       <c r="A14" s="2">
         <v>30618</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>45238</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4715,10 +4722,10 @@
       <c r="Y14" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="Z14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB14" s="2">
@@ -4739,7 +4746,7 @@
       <c r="A15" s="2">
         <v>30617</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>45238</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -4811,10 +4818,10 @@
       <c r="Y15" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="Z15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AA15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB15" s="2">
@@ -4835,7 +4842,7 @@
       <c r="A16" s="2">
         <v>30616</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>45238</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -4907,10 +4914,10 @@
       <c r="Y16" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="Z16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AA16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB16" s="2">
@@ -4931,7 +4938,7 @@
       <c r="A17" s="2">
         <v>30615</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>45238</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5003,10 +5010,10 @@
       <c r="Y17" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="Z17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AA17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB17" s="2">
@@ -5027,7 +5034,7 @@
       <c r="A18" s="2">
         <v>30614</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>45238</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -5099,10 +5106,10 @@
       <c r="Y18" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="Z18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AA18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB18" s="2">
@@ -5123,7 +5130,7 @@
       <c r="A19" s="2">
         <v>30613</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>45238</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5195,10 +5202,10 @@
       <c r="Y19" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="Z19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AA19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB19" s="2">
@@ -5219,7 +5226,7 @@
       <c r="A20" s="2">
         <v>30612</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>45238</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5291,10 +5298,10 @@
       <c r="Y20" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA20" s="2" t="s">
+      <c r="AA20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB20" s="2">
@@ -5315,7 +5322,7 @@
       <c r="A21" s="2">
         <v>30611</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>45238</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -5387,10 +5394,10 @@
       <c r="Y21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="Z21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="4">
         <v>45238</v>
       </c>
       <c r="AB21" s="2">
@@ -5411,7 +5418,7 @@
       <c r="A22" s="2">
         <v>30610</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>45238</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -5483,10 +5490,10 @@
       <c r="Y22" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="Z22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB22" s="2">
@@ -5507,7 +5514,7 @@
       <c r="A23" s="2">
         <v>30609</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>45238</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -5577,10 +5584,10 @@
       <c r="Y23" s="2">
         <v>3753900</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="Z23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AA23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB23" s="2">
@@ -5601,7 +5608,7 @@
       <c r="A24" s="2">
         <v>30608</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>45238</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5671,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2" t="s">
+      <c r="Z24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA24" s="2" t="s">
+      <c r="AA24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB24" s="2">
@@ -5695,7 +5702,7 @@
       <c r="A25" s="2">
         <v>30607</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>45238</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5763,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2" t="s">
+      <c r="Z25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA25" s="2" t="s">
+      <c r="AA25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB25" s="2">
@@ -5787,7 +5794,7 @@
       <c r="A26" s="2">
         <v>30606</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>45238</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -5855,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
+      <c r="Z26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA26" s="2" t="s">
+      <c r="AA26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB26" s="2">
@@ -5879,7 +5886,7 @@
       <c r="A27" s="2">
         <v>30605</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>45238</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -5949,10 +5956,10 @@
       <c r="Y27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="4">
         <v>45238</v>
       </c>
       <c r="AB27" s="2">
@@ -5973,7 +5980,7 @@
       <c r="A28" s="2">
         <v>30604</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>45238</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -6043,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA28" s="2" t="s">
+      <c r="AA28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB28" s="2">
@@ -6067,7 +6074,7 @@
       <c r="A29" s="2">
         <v>30603</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>45238</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -6137,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2" t="s">
+      <c r="Z29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA29" s="2" t="s">
+      <c r="AA29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB29" s="2">
@@ -6161,7 +6168,7 @@
       <c r="A30" s="2">
         <v>30602</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>45238</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -6231,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2" t="s">
+      <c r="Z30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA30" s="2" t="s">
+      <c r="AA30" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB30" s="2">
@@ -6255,7 +6262,7 @@
       <c r="A31" s="2">
         <v>30601</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>45238</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -6325,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2" t="s">
+      <c r="Z31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA31" s="2" t="s">
+      <c r="AA31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB31" s="2">
@@ -6349,7 +6356,7 @@
       <c r="A32" s="2">
         <v>30600</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>45238</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6419,10 +6426,10 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2" t="s">
+      <c r="Z32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA32" s="2" t="s">
+      <c r="AA32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB32" s="2">
@@ -6443,7 +6450,7 @@
       <c r="A33" s="2">
         <v>30599</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>45238</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -6513,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2" t="s">
+      <c r="Z33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA33" s="2" t="s">
+      <c r="AA33" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB33" s="2">
@@ -6537,7 +6544,7 @@
       <c r="A34" s="2">
         <v>30598</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>45238</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6607,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2" t="s">
+      <c r="Z34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA34" s="2" t="s">
+      <c r="AA34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB34" s="2">
@@ -6631,7 +6638,7 @@
       <c r="A35" s="2">
         <v>30597</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>45238</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -6701,10 +6708,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2" t="s">
+      <c r="Z35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA35" s="2" t="s">
+      <c r="AA35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB35" s="2">
@@ -6725,7 +6732,7 @@
       <c r="A36" s="2">
         <v>30596</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>45238</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -6797,10 +6804,10 @@
       <c r="Y36" s="2">
         <v>210000</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="Z36" s="4">
         <v>45238</v>
       </c>
-      <c r="AA36" s="2" t="s">
+      <c r="AA36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB36" s="2">
@@ -6821,7 +6828,7 @@
       <c r="A37" s="2">
         <v>30595</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>45238</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6891,10 +6898,10 @@
       <c r="Y37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z37" s="2" t="s">
+      <c r="Z37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AA37" s="4">
         <v>45238</v>
       </c>
       <c r="AB37" s="2">
@@ -6917,7 +6924,7 @@
       <c r="A38" s="2">
         <v>30594</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>45238</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -6987,10 +6994,10 @@
       <c r="Y38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z38" s="2" t="s">
+      <c r="Z38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AA38" s="4">
         <v>45238</v>
       </c>
       <c r="AB38" s="2">
@@ -7013,7 +7020,7 @@
       <c r="A39" s="2">
         <v>30593</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>45238</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -7083,10 +7090,10 @@
       <c r="Y39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z39" s="2" t="s">
+      <c r="Z39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AA39" s="4">
         <v>45238</v>
       </c>
       <c r="AB39" s="2">
@@ -7109,7 +7116,7 @@
       <c r="A40" s="2">
         <v>30592</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>45238</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -7181,10 +7188,10 @@
       <c r="Y40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z40" s="2" t="s">
+      <c r="Z40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AA40" s="4">
         <v>45238</v>
       </c>
       <c r="AB40" s="2">
@@ -7205,7 +7212,7 @@
       <c r="A41" s="2">
         <v>30591</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>45238</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -7275,10 +7282,10 @@
         <v>0</v>
       </c>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2" t="s">
+      <c r="Z41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA41" s="2" t="s">
+      <c r="AA41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB41" s="2">
@@ -7299,7 +7306,7 @@
       <c r="A42" s="2">
         <v>30590</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>45238</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -7371,10 +7378,10 @@
       <c r="Y42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z42" s="2" t="s">
+      <c r="Z42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="4">
         <v>45238</v>
       </c>
       <c r="AB42" s="2">
@@ -7395,7 +7402,7 @@
       <c r="A43" s="2">
         <v>30589</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>45238</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -7467,10 +7474,10 @@
       <c r="Y43" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z43" s="2" t="s">
+      <c r="Z43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="4">
         <v>45238</v>
       </c>
       <c r="AB43" s="2">
@@ -7491,7 +7498,7 @@
       <c r="A44" s="2">
         <v>30588</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>45238</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -7563,10 +7570,10 @@
       <c r="Y44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z44" s="2" t="s">
+      <c r="Z44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="4">
         <v>45238</v>
       </c>
       <c r="AB44" s="2">
@@ -7587,7 +7594,7 @@
       <c r="A45" s="2">
         <v>30587</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>45238</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -7659,10 +7666,10 @@
       <c r="Y45" s="2">
         <v>14000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="4">
         <v>45238</v>
       </c>
-      <c r="AA45" s="2" t="s">
+      <c r="AA45" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB45" s="2">
@@ -7683,7 +7690,7 @@
       <c r="A46" s="2">
         <v>30586</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>45238</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -7755,10 +7762,10 @@
       <c r="Y46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z46" s="2" t="s">
+      <c r="Z46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="4">
         <v>45238</v>
       </c>
       <c r="AB46" s="2">
@@ -7779,7 +7786,7 @@
       <c r="A47" s="2">
         <v>30585</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>45238</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -7847,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="2" t="s">
+      <c r="Z47" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA47" s="2" t="s">
+      <c r="AA47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB47" s="2">
@@ -7873,7 +7880,7 @@
       <c r="A48" s="2">
         <v>30584</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>45238</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -7945,10 +7952,10 @@
       <c r="Y48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z48" s="2" t="s">
+      <c r="Z48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="4">
         <v>45238</v>
       </c>
       <c r="AB48" s="2">
@@ -7969,7 +7976,7 @@
       <c r="A49" s="2">
         <v>30583</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>45238</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -8041,10 +8048,10 @@
       <c r="Y49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z49" s="2" t="s">
+      <c r="Z49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="4">
         <v>45238</v>
       </c>
       <c r="AB49" s="2">
@@ -8065,7 +8072,7 @@
       <c r="A50" s="2">
         <v>30582</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>45238</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -8137,10 +8144,10 @@
       <c r="Y50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z50" s="2" t="s">
+      <c r="Z50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AA50" s="4">
         <v>45238</v>
       </c>
       <c r="AB50" s="2">
@@ -8161,7 +8168,7 @@
       <c r="A51" s="2">
         <v>30581</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>45238</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -8233,10 +8240,10 @@
       <c r="Y51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z51" s="2" t="s">
+      <c r="Z51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA51" s="4">
         <v>45238</v>
       </c>
       <c r="AB51" s="2">
@@ -8257,7 +8264,7 @@
       <c r="A52" s="2">
         <v>30580</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>45238</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -8327,10 +8334,10 @@
       <c r="Y52" s="2">
         <v>210000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="4">
         <v>45238</v>
       </c>
-      <c r="AA52" s="2" t="s">
+      <c r="AA52" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB52" s="2">
@@ -8353,7 +8360,7 @@
       <c r="A53" s="2">
         <v>30579</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>45238</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -8425,10 +8432,10 @@
       <c r="Y53" s="2">
         <v>210000</v>
       </c>
-      <c r="Z53" s="3">
+      <c r="Z53" s="4">
         <v>45238</v>
       </c>
-      <c r="AA53" s="2" t="s">
+      <c r="AA53" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB53" s="2">
@@ -8449,7 +8456,7 @@
       <c r="A54" s="2">
         <v>30578</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>45238</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -8521,10 +8528,10 @@
       <c r="Y54" s="2">
         <v>210000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="4">
         <v>45238</v>
       </c>
-      <c r="AA54" s="2" t="s">
+      <c r="AA54" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB54" s="2">
@@ -8545,7 +8552,7 @@
       <c r="A55" s="2">
         <v>30577</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>45238</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -8617,10 +8624,10 @@
       <c r="Y55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z55" s="2" t="s">
+      <c r="Z55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AA55" s="4">
         <v>45238</v>
       </c>
       <c r="AB55" s="2">
@@ -8641,7 +8648,7 @@
       <c r="A56" s="2">
         <v>30576</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>45238</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -8713,10 +8720,10 @@
       <c r="Y56" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z56" s="2" t="s">
+      <c r="Z56" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA56" s="4">
         <v>45238</v>
       </c>
       <c r="AB56" s="2">
@@ -8737,7 +8744,7 @@
       <c r="A57" s="2">
         <v>30575</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>45238</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -8809,10 +8816,10 @@
       <c r="Y57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z57" s="2" t="s">
+      <c r="Z57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="4">
         <v>45238</v>
       </c>
       <c r="AB57" s="2">
@@ -8833,7 +8840,7 @@
       <c r="A58" s="2">
         <v>30574</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>45238</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -8905,10 +8912,10 @@
       <c r="Y58" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z58" s="2" t="s">
+      <c r="Z58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="4">
         <v>45238</v>
       </c>
       <c r="AB58" s="2">
@@ -8929,7 +8936,7 @@
       <c r="A59" s="2">
         <v>30573</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>45238</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -9001,10 +9008,10 @@
       <c r="Y59" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z59" s="2" t="s">
+      <c r="Z59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="4">
         <v>45238</v>
       </c>
       <c r="AB59" s="2">
@@ -9025,7 +9032,7 @@
       <c r="A60" s="2">
         <v>30572</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>45238</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -9095,10 +9102,10 @@
       <c r="Y60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z60" s="2" t="s">
+      <c r="Z60" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="4">
         <v>45238</v>
       </c>
       <c r="AB60" s="2">
@@ -9121,7 +9128,7 @@
       <c r="A61" s="2">
         <v>30571</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>45238</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -9189,10 +9196,10 @@
       <c r="Y61" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z61" s="2" t="s">
+      <c r="Z61" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AA61" s="4">
         <v>45238</v>
       </c>
       <c r="AB61" s="2">
@@ -9215,7 +9222,7 @@
       <c r="A62" s="2">
         <v>30570</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>45238</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -9287,10 +9294,10 @@
       <c r="Y62" s="2">
         <v>240000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="4">
         <v>45238</v>
       </c>
-      <c r="AA62" s="2" t="s">
+      <c r="AA62" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB62" s="2">
@@ -9311,7 +9318,7 @@
       <c r="A63" s="2">
         <v>30569</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>45238</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -9381,10 +9388,10 @@
       <c r="Y63" s="2">
         <v>240000</v>
       </c>
-      <c r="Z63" s="3">
+      <c r="Z63" s="4">
         <v>45238</v>
       </c>
-      <c r="AA63" s="2" t="s">
+      <c r="AA63" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB63" s="2">
@@ -9407,7 +9414,7 @@
       <c r="A64" s="2">
         <v>30568</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>45238</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -9479,10 +9486,10 @@
       <c r="Y64" s="2">
         <v>240000</v>
       </c>
-      <c r="Z64" s="3">
+      <c r="Z64" s="4">
         <v>45238</v>
       </c>
-      <c r="AA64" s="2" t="s">
+      <c r="AA64" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB64" s="2">
@@ -9503,7 +9510,7 @@
       <c r="A65" s="2">
         <v>30567</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>45238</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -9573,10 +9580,10 @@
       <c r="Y65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z65" s="2" t="s">
+      <c r="Z65" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA65" s="3">
+      <c r="AA65" s="4">
         <v>45238</v>
       </c>
       <c r="AB65" s="2">
@@ -9599,7 +9606,7 @@
       <c r="A66" s="2">
         <v>30566</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>45238</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -9669,10 +9676,10 @@
         <v>0</v>
       </c>
       <c r="Y66" s="2"/>
-      <c r="Z66" s="2" t="s">
+      <c r="Z66" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA66" s="2" t="s">
+      <c r="AA66" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB66" s="2">
@@ -9693,7 +9700,7 @@
       <c r="A67" s="2">
         <v>30565</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>45238</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -9765,10 +9772,10 @@
       <c r="Y67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z67" s="2" t="s">
+      <c r="Z67" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA67" s="3">
+      <c r="AA67" s="4">
         <v>45238</v>
       </c>
       <c r="AB67" s="2">
@@ -9789,7 +9796,7 @@
       <c r="A68" s="2">
         <v>30564</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>45238</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -9859,10 +9866,10 @@
         <v>0</v>
       </c>
       <c r="Y68" s="2"/>
-      <c r="Z68" s="2" t="s">
+      <c r="Z68" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA68" s="2" t="s">
+      <c r="AA68" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB68" s="2">
@@ -9883,7 +9890,7 @@
       <c r="A69" s="2">
         <v>30563</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>45238</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -9953,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="Y69" s="2"/>
-      <c r="Z69" s="2" t="s">
+      <c r="Z69" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA69" s="2" t="s">
+      <c r="AA69" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB69" s="2">
@@ -9977,7 +9984,7 @@
       <c r="A70" s="2">
         <v>30562</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>45238</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -10047,10 +10054,10 @@
       <c r="Y70" s="2">
         <v>60000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="Z70" s="4">
         <v>45238</v>
       </c>
-      <c r="AA70" s="2" t="s">
+      <c r="AA70" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB70" s="2">
@@ -10073,7 +10080,7 @@
       <c r="A71" s="2">
         <v>30561</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>45238</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -10143,10 +10150,10 @@
       <c r="Y71" s="2">
         <v>60000</v>
       </c>
-      <c r="Z71" s="3">
+      <c r="Z71" s="4">
         <v>45238</v>
       </c>
-      <c r="AA71" s="2" t="s">
+      <c r="AA71" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB71" s="2">
@@ -10169,7 +10176,7 @@
       <c r="A72" s="2">
         <v>30560</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>45238</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -10241,10 +10248,10 @@
       <c r="Y72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z72" s="2" t="s">
+      <c r="Z72" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="4">
         <v>45238</v>
       </c>
       <c r="AB72" s="2">
@@ -10265,7 +10272,7 @@
       <c r="A73" s="2">
         <v>30559</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>45238</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -10335,10 +10342,10 @@
       <c r="Y73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z73" s="2" t="s">
+      <c r="Z73" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA73" s="3">
+      <c r="AA73" s="4">
         <v>45238</v>
       </c>
       <c r="AB73" s="2">
@@ -10361,7 +10368,7 @@
       <c r="A74" s="2">
         <v>30558</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>45238</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -10431,10 +10438,10 @@
       <c r="Y74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z74" s="2" t="s">
+      <c r="Z74" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA74" s="3">
+      <c r="AA74" s="4">
         <v>45238</v>
       </c>
       <c r="AB74" s="2">
@@ -10457,7 +10464,7 @@
       <c r="A75" s="2">
         <v>30557</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>45238</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -10529,10 +10536,10 @@
       <c r="Y75" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z75" s="3">
+      <c r="Z75" s="4">
         <v>45238</v>
       </c>
-      <c r="AA75" s="3">
+      <c r="AA75" s="4">
         <v>45238</v>
       </c>
       <c r="AB75" s="2">
@@ -10553,7 +10560,7 @@
       <c r="A76" s="2">
         <v>30556</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>45238</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -10625,10 +10632,10 @@
       <c r="Y76" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z76" s="2" t="s">
+      <c r="Z76" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="4">
         <v>45238</v>
       </c>
       <c r="AB76" s="2">
@@ -10649,7 +10656,7 @@
       <c r="A77" s="2">
         <v>30555</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>45238</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -10719,10 +10726,10 @@
         <v>0</v>
       </c>
       <c r="Y77" s="2"/>
-      <c r="Z77" s="2" t="s">
+      <c r="Z77" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA77" s="2" t="s">
+      <c r="AA77" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB77" s="2">
@@ -10743,7 +10750,7 @@
       <c r="A78" s="2">
         <v>30554</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>45238</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -10813,10 +10820,10 @@
       <c r="Y78" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z78" s="2" t="s">
+      <c r="Z78" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA78" s="3">
+      <c r="AA78" s="4">
         <v>45238</v>
       </c>
       <c r="AB78" s="2">
@@ -10839,7 +10846,7 @@
       <c r="A79" s="2">
         <v>30553</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>45238</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -10909,10 +10916,10 @@
       <c r="Y79" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z79" s="2" t="s">
+      <c r="Z79" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA79" s="3">
+      <c r="AA79" s="4">
         <v>45238</v>
       </c>
       <c r="AB79" s="2">
@@ -10935,7 +10942,7 @@
       <c r="A80" s="2">
         <v>30552</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>45238</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -11007,10 +11014,10 @@
       <c r="Y80" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z80" s="2" t="s">
+      <c r="Z80" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA80" s="3">
+      <c r="AA80" s="4">
         <v>45238</v>
       </c>
       <c r="AB80" s="2">
@@ -11031,7 +11038,7 @@
       <c r="A81" s="2">
         <v>30551</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>45238</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -11103,10 +11110,10 @@
       <c r="Y81" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z81" s="2" t="s">
+      <c r="Z81" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="4">
         <v>45238</v>
       </c>
       <c r="AB81" s="2">
@@ -11127,7 +11134,7 @@
       <c r="A82" s="2">
         <v>30550</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>45238</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -11199,10 +11206,10 @@
       <c r="Y82" s="2">
         <v>37000</v>
       </c>
-      <c r="Z82" s="3">
+      <c r="Z82" s="4">
         <v>45238</v>
       </c>
-      <c r="AA82" s="2" t="s">
+      <c r="AA82" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB82" s="2">
@@ -11223,7 +11230,7 @@
       <c r="A83" s="2">
         <v>30549</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>45237</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -11295,10 +11302,10 @@
       <c r="Y83" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z83" s="2" t="s">
+      <c r="Z83" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="4">
         <v>45237</v>
       </c>
       <c r="AB83" s="2">
@@ -11319,7 +11326,7 @@
       <c r="A84" s="2">
         <v>30548</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>45237</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -11391,10 +11398,10 @@
       <c r="Y84" s="2">
         <v>50000</v>
       </c>
-      <c r="Z84" s="3">
+      <c r="Z84" s="4">
         <v>45237</v>
       </c>
-      <c r="AA84" s="2" t="s">
+      <c r="AA84" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB84" s="2">
@@ -11415,7 +11422,7 @@
       <c r="A85" s="2">
         <v>30547</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>45237</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -11487,10 +11494,10 @@
       <c r="Y85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z85" s="2" t="s">
+      <c r="Z85" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA85" s="3">
+      <c r="AA85" s="4">
         <v>45237</v>
       </c>
       <c r="AB85" s="2">
@@ -11511,7 +11518,7 @@
       <c r="A86" s="2">
         <v>30546</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>45237</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -11583,10 +11590,10 @@
       <c r="Y86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z86" s="2" t="s">
+      <c r="Z86" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA86" s="3">
+      <c r="AA86" s="4">
         <v>45237</v>
       </c>
       <c r="AB86" s="2">
@@ -11607,7 +11614,7 @@
       <c r="A87" s="2">
         <v>30545</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>45237</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -11679,10 +11686,10 @@
       <c r="Y87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z87" s="2" t="s">
+      <c r="Z87" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA87" s="3">
+      <c r="AA87" s="4">
         <v>45237</v>
       </c>
       <c r="AB87" s="2">
@@ -11703,7 +11710,7 @@
       <c r="A88" s="2">
         <v>30544</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>45237</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -11773,10 +11780,10 @@
       <c r="Y88" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z88" s="2" t="s">
+      <c r="Z88" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA88" s="3">
+      <c r="AA88" s="4">
         <v>45237</v>
       </c>
       <c r="AB88" s="2">
@@ -11799,7 +11806,7 @@
       <c r="A89" s="2">
         <v>30543</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>45237</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -11869,10 +11876,10 @@
         <v>0</v>
       </c>
       <c r="Y89" s="2"/>
-      <c r="Z89" s="2" t="s">
+      <c r="Z89" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA89" s="2" t="s">
+      <c r="AA89" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB89" s="2">
@@ -11893,7 +11900,7 @@
       <c r="A90" s="2">
         <v>30542</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>45237</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -11963,10 +11970,10 @@
         <v>0</v>
       </c>
       <c r="Y90" s="2"/>
-      <c r="Z90" s="2" t="s">
+      <c r="Z90" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA90" s="2" t="s">
+      <c r="AA90" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB90" s="2">
@@ -11987,7 +11994,7 @@
       <c r="A91" s="2">
         <v>30541</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>45237</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -12057,10 +12064,10 @@
         <v>0</v>
       </c>
       <c r="Y91" s="2"/>
-      <c r="Z91" s="2" t="s">
+      <c r="Z91" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA91" s="2" t="s">
+      <c r="AA91" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB91" s="2">
@@ -12081,7 +12088,7 @@
       <c r="A92" s="2">
         <v>30540</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>45237</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -12153,10 +12160,10 @@
       <c r="Y92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z92" s="2" t="s">
+      <c r="Z92" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA92" s="3">
+      <c r="AA92" s="4">
         <v>45237</v>
       </c>
       <c r="AB92" s="2">
@@ -12177,7 +12184,7 @@
       <c r="A93" s="2">
         <v>30539</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>45237</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -12249,10 +12256,10 @@
       <c r="Y93" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z93" s="2" t="s">
+      <c r="Z93" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA93" s="3">
+      <c r="AA93" s="4">
         <v>45237</v>
       </c>
       <c r="AB93" s="2">
@@ -12273,7 +12280,7 @@
       <c r="A94" s="2">
         <v>30538</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>45237</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -12343,10 +12350,10 @@
       <c r="Y94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z94" s="2" t="s">
+      <c r="Z94" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="4">
         <v>45237</v>
       </c>
       <c r="AB94" s="2">
@@ -12369,7 +12376,7 @@
       <c r="A95" s="2">
         <v>30537</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>45237</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -12439,10 +12446,10 @@
       <c r="Y95" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z95" s="2" t="s">
+      <c r="Z95" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA95" s="3">
+      <c r="AA95" s="4">
         <v>45237</v>
       </c>
       <c r="AB95" s="2">
@@ -12465,7 +12472,7 @@
       <c r="A96" s="2">
         <v>30536</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>45237</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -12537,10 +12544,10 @@
       <c r="Y96" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z96" s="2" t="s">
+      <c r="Z96" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AA96" s="4">
         <v>45237</v>
       </c>
       <c r="AB96" s="2">
@@ -12561,7 +12568,7 @@
       <c r="A97" s="2">
         <v>30535</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>45237</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -12633,10 +12640,10 @@
       <c r="Y97" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z97" s="2" t="s">
+      <c r="Z97" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA97" s="3">
+      <c r="AA97" s="4">
         <v>45237</v>
       </c>
       <c r="AB97" s="2">
@@ -12657,7 +12664,7 @@
       <c r="A98" s="2">
         <v>30534</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>45237</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -12727,10 +12734,10 @@
       <c r="Y98" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z98" s="2" t="s">
+      <c r="Z98" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA98" s="3">
+      <c r="AA98" s="4">
         <v>45237</v>
       </c>
       <c r="AB98" s="2">
@@ -12753,7 +12760,7 @@
       <c r="A99" s="2">
         <v>30533</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>45237</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -12823,10 +12830,10 @@
         <v>0</v>
       </c>
       <c r="Y99" s="2"/>
-      <c r="Z99" s="2" t="s">
+      <c r="Z99" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA99" s="2" t="s">
+      <c r="AA99" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB99" s="2">
@@ -12847,7 +12854,7 @@
       <c r="A100" s="2">
         <v>30532</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>45237</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -12917,10 +12924,10 @@
         <v>0</v>
       </c>
       <c r="Y100" s="2"/>
-      <c r="Z100" s="2" t="s">
+      <c r="Z100" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA100" s="2" t="s">
+      <c r="AA100" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB100" s="2">
@@ -12941,7 +12948,7 @@
       <c r="A101" s="2">
         <v>30531</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>45237</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -13011,10 +13018,10 @@
       <c r="Y101" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z101" s="2" t="s">
+      <c r="Z101" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="4">
         <v>45237</v>
       </c>
       <c r="AB101" s="2">
@@ -13037,7 +13044,7 @@
       <c r="A102" s="2">
         <v>30530</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>45237</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -13107,10 +13114,10 @@
         <v>0</v>
       </c>
       <c r="Y102" s="2"/>
-      <c r="Z102" s="2" t="s">
+      <c r="Z102" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA102" s="2" t="s">
+      <c r="AA102" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB102" s="2">
@@ -13131,7 +13138,7 @@
       <c r="A103" s="2">
         <v>30529</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>45237</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -13201,10 +13208,10 @@
         <v>0</v>
       </c>
       <c r="Y103" s="2"/>
-      <c r="Z103" s="2" t="s">
+      <c r="Z103" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA103" s="2" t="s">
+      <c r="AA103" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB103" s="2">
@@ -13225,7 +13232,7 @@
       <c r="A104" s="2">
         <v>30528</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>45237</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -13295,10 +13302,10 @@
         <v>0</v>
       </c>
       <c r="Y104" s="2"/>
-      <c r="Z104" s="2" t="s">
+      <c r="Z104" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA104" s="2" t="s">
+      <c r="AA104" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB104" s="2">
@@ -13319,7 +13326,7 @@
       <c r="A105" s="2">
         <v>30527</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>45237</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -13389,10 +13396,10 @@
         <v>0</v>
       </c>
       <c r="Y105" s="2"/>
-      <c r="Z105" s="2" t="s">
+      <c r="Z105" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA105" s="2" t="s">
+      <c r="AA105" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB105" s="2">
@@ -13413,7 +13420,7 @@
       <c r="A106" s="2">
         <v>30526</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>45237</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -13483,10 +13490,10 @@
         <v>0</v>
       </c>
       <c r="Y106" s="2"/>
-      <c r="Z106" s="2" t="s">
+      <c r="Z106" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA106" s="2" t="s">
+      <c r="AA106" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB106" s="2">
@@ -13507,7 +13514,7 @@
       <c r="A107" s="2">
         <v>30525</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>45237</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -13575,10 +13582,10 @@
         <v>0</v>
       </c>
       <c r="Y107" s="2"/>
-      <c r="Z107" s="2" t="s">
+      <c r="Z107" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA107" s="2" t="s">
+      <c r="AA107" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB107" s="2">
@@ -13599,7 +13606,7 @@
       <c r="A108" s="2">
         <v>30524</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>45237</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -13671,10 +13678,10 @@
       <c r="Y108" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z108" s="2" t="s">
+      <c r="Z108" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA108" s="3">
+      <c r="AA108" s="4">
         <v>45237</v>
       </c>
       <c r="AB108" s="2">
@@ -13695,7 +13702,7 @@
       <c r="A109" s="2">
         <v>30523</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>45237</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -13767,10 +13774,10 @@
       <c r="Y109" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z109" s="2" t="s">
+      <c r="Z109" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA109" s="3">
+      <c r="AA109" s="4">
         <v>45238</v>
       </c>
       <c r="AB109" s="2">
@@ -13791,7 +13798,7 @@
       <c r="A110" s="2">
         <v>30522</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>45237</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -13863,10 +13870,10 @@
       <c r="Y110" s="2">
         <v>80000</v>
       </c>
-      <c r="Z110" s="3">
+      <c r="Z110" s="4">
         <v>45237</v>
       </c>
-      <c r="AA110" s="2" t="s">
+      <c r="AA110" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB110" s="2">
@@ -13887,7 +13894,7 @@
       <c r="A111" s="2">
         <v>30521</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>45237</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -13957,10 +13964,10 @@
       <c r="Y111" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z111" s="2" t="s">
+      <c r="Z111" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA111" s="3">
+      <c r="AA111" s="4">
         <v>45237</v>
       </c>
       <c r="AB111" s="2">
@@ -13983,7 +13990,7 @@
       <c r="A112" s="2">
         <v>30520</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>45237</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -14053,10 +14060,10 @@
       <c r="Y112" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z112" s="2" t="s">
+      <c r="Z112" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA112" s="3">
+      <c r="AA112" s="4">
         <v>45238</v>
       </c>
       <c r="AB112" s="2">
@@ -14079,7 +14086,7 @@
       <c r="A113" s="2">
         <v>30519</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>45237</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -14151,10 +14158,10 @@
       <c r="Y113" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z113" s="2" t="s">
+      <c r="Z113" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA113" s="3">
+      <c r="AA113" s="4">
         <v>45237</v>
       </c>
       <c r="AB113" s="2">
@@ -14175,7 +14182,7 @@
       <c r="A114" s="2">
         <v>30518</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>45237</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -14247,10 +14254,10 @@
       <c r="Y114" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z114" s="3">
+      <c r="Z114" s="4">
         <v>45237</v>
       </c>
-      <c r="AA114" s="3">
+      <c r="AA114" s="4">
         <v>45238</v>
       </c>
       <c r="AB114" s="2">
@@ -14271,7 +14278,7 @@
       <c r="A115" s="2">
         <v>30517</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <v>45237</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -14343,10 +14350,10 @@
       <c r="Y115" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z115" s="3">
+      <c r="Z115" s="4">
         <v>45237</v>
       </c>
-      <c r="AA115" s="3">
+      <c r="AA115" s="4">
         <v>45238</v>
       </c>
       <c r="AB115" s="2">
@@ -14367,7 +14374,7 @@
       <c r="A116" s="2">
         <v>30516</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>45237</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -14439,10 +14446,10 @@
       <c r="Y116" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z116" s="3">
+      <c r="Z116" s="4">
         <v>45237</v>
       </c>
-      <c r="AA116" s="3">
+      <c r="AA116" s="4">
         <v>45238</v>
       </c>
       <c r="AB116" s="2">
@@ -14463,7 +14470,7 @@
       <c r="A117" s="2">
         <v>30515</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>45237</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -14533,10 +14540,10 @@
       <c r="Y117" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z117" s="2" t="s">
+      <c r="Z117" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA117" s="3">
+      <c r="AA117" s="4">
         <v>45237</v>
       </c>
       <c r="AB117" s="2">
@@ -14559,7 +14566,7 @@
       <c r="A118" s="2">
         <v>30514</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>45237</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -14629,10 +14636,10 @@
       <c r="Y118" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z118" s="2" t="s">
+      <c r="Z118" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA118" s="3">
+      <c r="AA118" s="4">
         <v>45237</v>
       </c>
       <c r="AB118" s="2">
@@ -14655,7 +14662,7 @@
       <c r="A119" s="2">
         <v>30513</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>45237</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -14727,10 +14734,10 @@
       <c r="Y119" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z119" s="2" t="s">
+      <c r="Z119" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA119" s="3">
+      <c r="AA119" s="4">
         <v>45237</v>
       </c>
       <c r="AB119" s="2">
@@ -14751,7 +14758,7 @@
       <c r="A120" s="2">
         <v>30512</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <v>45237</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -14823,10 +14830,10 @@
       <c r="Y120" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z120" s="2" t="s">
+      <c r="Z120" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA120" s="3">
+      <c r="AA120" s="4">
         <v>45237</v>
       </c>
       <c r="AB120" s="2">
@@ -14847,7 +14854,7 @@
       <c r="A121" s="2">
         <v>30511</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>45237</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -14917,10 +14924,10 @@
       <c r="Y121" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z121" s="2" t="s">
+      <c r="Z121" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA121" s="3">
+      <c r="AA121" s="4">
         <v>45237</v>
       </c>
       <c r="AB121" s="2">
@@ -14943,7 +14950,7 @@
       <c r="A122" s="2">
         <v>30510</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>45237</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -15015,10 +15022,10 @@
       <c r="Y122" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z122" s="2" t="s">
+      <c r="Z122" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA122" s="3">
+      <c r="AA122" s="4">
         <v>45237</v>
       </c>
       <c r="AB122" s="2">
@@ -15039,7 +15046,7 @@
       <c r="A123" s="2">
         <v>30509</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>45237</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -15111,10 +15118,10 @@
       <c r="Y123" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z123" s="2" t="s">
+      <c r="Z123" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA123" s="3">
+      <c r="AA123" s="4">
         <v>45238</v>
       </c>
       <c r="AB123" s="2">
@@ -15135,7 +15142,7 @@
       <c r="A124" s="2">
         <v>30508</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>45237</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -15205,10 +15212,10 @@
       <c r="Y124" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z124" s="2" t="s">
+      <c r="Z124" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA124" s="3">
+      <c r="AA124" s="4">
         <v>45237</v>
       </c>
       <c r="AB124" s="2">
@@ -15231,7 +15238,7 @@
       <c r="A125" s="2">
         <v>30507</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>45237</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -15303,10 +15310,10 @@
       <c r="Y125" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z125" s="2" t="s">
+      <c r="Z125" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA125" s="3">
+      <c r="AA125" s="4">
         <v>45237</v>
       </c>
       <c r="AB125" s="2">
@@ -15327,7 +15334,7 @@
       <c r="A126" s="2">
         <v>30506</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>45237</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -15399,10 +15406,10 @@
       <c r="Y126" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z126" s="2" t="s">
+      <c r="Z126" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA126" s="3">
+      <c r="AA126" s="4">
         <v>45237</v>
       </c>
       <c r="AB126" s="2">
@@ -15423,7 +15430,7 @@
       <c r="A127" s="2">
         <v>30505</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <v>45237</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -15493,10 +15500,10 @@
       <c r="Y127" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z127" s="2" t="s">
+      <c r="Z127" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA127" s="3">
+      <c r="AA127" s="4">
         <v>45237</v>
       </c>
       <c r="AB127" s="2">
@@ -15519,7 +15526,7 @@
       <c r="A128" s="2">
         <v>30504</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>45237</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -15589,10 +15596,10 @@
       <c r="Y128" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z128" s="2" t="s">
+      <c r="Z128" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA128" s="3">
+      <c r="AA128" s="4">
         <v>45237</v>
       </c>
       <c r="AB128" s="2">
@@ -15615,7 +15622,7 @@
       <c r="A129" s="2">
         <v>30503</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>45237</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -15685,10 +15692,10 @@
       <c r="Y129" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z129" s="2" t="s">
+      <c r="Z129" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA129" s="3">
+      <c r="AA129" s="4">
         <v>45237</v>
       </c>
       <c r="AB129" s="2">
@@ -15711,7 +15718,7 @@
       <c r="A130" s="2">
         <v>30502</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>45237</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -15781,10 +15788,10 @@
       <c r="Y130" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z130" s="2" t="s">
+      <c r="Z130" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA130" s="3">
+      <c r="AA130" s="4">
         <v>45238</v>
       </c>
       <c r="AB130" s="2">
@@ -15807,7 +15814,7 @@
       <c r="A131" s="2">
         <v>30501</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>45237</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -15879,10 +15886,10 @@
       <c r="Y131" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z131" s="2" t="s">
+      <c r="Z131" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA131" s="3">
+      <c r="AA131" s="4">
         <v>45237</v>
       </c>
       <c r="AB131" s="2">
@@ -15903,7 +15910,7 @@
       <c r="A132" s="2">
         <v>30500</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>45237</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -15975,10 +15982,10 @@
       <c r="Y132" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z132" s="2" t="s">
+      <c r="Z132" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA132" s="3">
+      <c r="AA132" s="4">
         <v>45237</v>
       </c>
       <c r="AB132" s="2">
@@ -15999,7 +16006,7 @@
       <c r="A133" s="2">
         <v>30499</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>45237</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -16071,10 +16078,10 @@
       <c r="Y133" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z133" s="2" t="s">
+      <c r="Z133" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA133" s="3">
+      <c r="AA133" s="4">
         <v>45237</v>
       </c>
       <c r="AB133" s="2">
@@ -16095,7 +16102,7 @@
       <c r="A134" s="2">
         <v>30498</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <v>45237</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -16167,10 +16174,10 @@
       <c r="Y134" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z134" s="2" t="s">
+      <c r="Z134" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA134" s="3">
+      <c r="AA134" s="4">
         <v>45237</v>
       </c>
       <c r="AB134" s="2">
@@ -16191,7 +16198,7 @@
       <c r="A135" s="2">
         <v>30497</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>45237</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -16263,10 +16270,10 @@
       <c r="Y135" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z135" s="3">
+      <c r="Z135" s="4">
         <v>45237</v>
       </c>
-      <c r="AA135" s="3">
+      <c r="AA135" s="4">
         <v>45238</v>
       </c>
       <c r="AB135" s="2">
@@ -16287,7 +16294,7 @@
       <c r="A136" s="2">
         <v>30496</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <v>45237</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -16357,10 +16364,10 @@
       <c r="Y136" s="2">
         <v>700000</v>
       </c>
-      <c r="Z136" s="3">
+      <c r="Z136" s="4">
         <v>45237</v>
       </c>
-      <c r="AA136" s="2" t="s">
+      <c r="AA136" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB136" s="2">
@@ -16381,7 +16388,7 @@
       <c r="A137" s="2">
         <v>30495</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>45237</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -16453,10 +16460,10 @@
       <c r="Y137" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z137" s="2" t="s">
+      <c r="Z137" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA137" s="3">
+      <c r="AA137" s="4">
         <v>45237</v>
       </c>
       <c r="AB137" s="2">
@@ -16477,7 +16484,7 @@
       <c r="A138" s="2">
         <v>30494</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>45237</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -16547,10 +16554,10 @@
       <c r="Y138" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z138" s="2" t="s">
+      <c r="Z138" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA138" s="3">
+      <c r="AA138" s="4">
         <v>45237</v>
       </c>
       <c r="AB138" s="2">
@@ -16573,7 +16580,7 @@
       <c r="A139" s="2">
         <v>30493</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <v>45237</v>
       </c>
       <c r="C139" s="2" t="s">
@@ -16645,10 +16652,10 @@
       <c r="Y139" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z139" s="2" t="s">
+      <c r="Z139" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA139" s="3">
+      <c r="AA139" s="4">
         <v>45237</v>
       </c>
       <c r="AB139" s="2">
@@ -16669,7 +16676,7 @@
       <c r="A140" s="2">
         <v>30492</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>45237</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -16739,10 +16746,10 @@
       <c r="Y140" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z140" s="2" t="s">
+      <c r="Z140" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA140" s="3">
+      <c r="AA140" s="4">
         <v>45237</v>
       </c>
       <c r="AB140" s="2">
@@ -16765,7 +16772,7 @@
       <c r="A141" s="2">
         <v>30491</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <v>45237</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -16837,10 +16844,10 @@
       <c r="Y141" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z141" s="2" t="s">
+      <c r="Z141" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA141" s="3">
+      <c r="AA141" s="4">
         <v>45237</v>
       </c>
       <c r="AB141" s="2">
@@ -16861,7 +16868,7 @@
       <c r="A142" s="2">
         <v>30490</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>45237</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -16931,10 +16938,10 @@
         <v>0</v>
       </c>
       <c r="Y142" s="2"/>
-      <c r="Z142" s="2" t="s">
+      <c r="Z142" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA142" s="2" t="s">
+      <c r="AA142" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB142" s="2">
@@ -16955,7 +16962,7 @@
       <c r="A143" s="2">
         <v>30489</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>45237</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -17027,10 +17034,10 @@
       <c r="Y143" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z143" s="2" t="s">
+      <c r="Z143" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA143" s="3">
+      <c r="AA143" s="4">
         <v>45237</v>
       </c>
       <c r="AB143" s="2">
@@ -17051,7 +17058,7 @@
       <c r="A144" s="2">
         <v>30488</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>45237</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -17121,10 +17128,10 @@
       <c r="Y144" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z144" s="2" t="s">
+      <c r="Z144" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA144" s="3">
+      <c r="AA144" s="4">
         <v>45237</v>
       </c>
       <c r="AB144" s="2">
@@ -17147,7 +17154,7 @@
       <c r="A145" s="2">
         <v>30487</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>45237</v>
       </c>
       <c r="C145" s="2" t="s">
@@ -17217,10 +17224,10 @@
       <c r="Y145" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z145" s="2" t="s">
+      <c r="Z145" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA145" s="3">
+      <c r="AA145" s="4">
         <v>45237</v>
       </c>
       <c r="AB145" s="2">
@@ -17243,7 +17250,7 @@
       <c r="A146" s="2">
         <v>30486</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>45237</v>
       </c>
       <c r="C146" s="2" t="s">
@@ -17315,10 +17322,10 @@
       <c r="Y146" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z146" s="2" t="s">
+      <c r="Z146" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA146" s="3">
+      <c r="AA146" s="4">
         <v>45237</v>
       </c>
       <c r="AB146" s="2">
@@ -17339,7 +17346,7 @@
       <c r="A147" s="2">
         <v>30485</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>45237</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -17411,10 +17418,10 @@
       <c r="Y147" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z147" s="2" t="s">
+      <c r="Z147" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA147" s="3">
+      <c r="AA147" s="4">
         <v>45237</v>
       </c>
       <c r="AB147" s="2">
@@ -17435,7 +17442,7 @@
       <c r="A148" s="2">
         <v>30484</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>45237</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -17507,10 +17514,10 @@
       <c r="Y148" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z148" s="2" t="s">
+      <c r="Z148" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA148" s="3">
+      <c r="AA148" s="4">
         <v>45237</v>
       </c>
       <c r="AB148" s="2">
@@ -17531,7 +17538,7 @@
       <c r="A149" s="2">
         <v>30483</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>45236</v>
       </c>
       <c r="C149" s="2" t="s">
@@ -17603,10 +17610,10 @@
       <c r="Y149" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z149" s="3">
+      <c r="Z149" s="4">
         <v>45237</v>
       </c>
-      <c r="AA149" s="3">
+      <c r="AA149" s="4">
         <v>45238</v>
       </c>
       <c r="AB149" s="2">
@@ -17627,7 +17634,7 @@
       <c r="A150" s="2">
         <v>30482</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>45236</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -17699,10 +17706,10 @@
       <c r="Y150" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z150" s="3">
+      <c r="Z150" s="4">
         <v>45237</v>
       </c>
-      <c r="AA150" s="3">
+      <c r="AA150" s="4">
         <v>45238</v>
       </c>
       <c r="AB150" s="2">
@@ -17723,7 +17730,7 @@
       <c r="A151" s="2">
         <v>30481</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>45236</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -17795,10 +17802,10 @@
       <c r="Y151" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z151" s="3">
+      <c r="Z151" s="4">
         <v>45237</v>
       </c>
-      <c r="AA151" s="3">
+      <c r="AA151" s="4">
         <v>45238</v>
       </c>
       <c r="AB151" s="2">
@@ -17819,7 +17826,7 @@
       <c r="A152" s="2">
         <v>30480</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>45236</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -17891,10 +17898,10 @@
       <c r="Y152" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z152" s="2" t="s">
+      <c r="Z152" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA152" s="3">
+      <c r="AA152" s="4">
         <v>45236</v>
       </c>
       <c r="AB152" s="2">
@@ -17915,7 +17922,7 @@
       <c r="A153" s="2">
         <v>30479</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>45236</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -17987,10 +17994,10 @@
       <c r="Y153" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z153" s="3">
+      <c r="Z153" s="4">
         <v>45237</v>
       </c>
-      <c r="AA153" s="3">
+      <c r="AA153" s="4">
         <v>45238</v>
       </c>
       <c r="AB153" s="2">
@@ -18011,7 +18018,7 @@
       <c r="A154" s="2">
         <v>30478</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>45236</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -18083,10 +18090,10 @@
       <c r="Y154" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z154" s="3">
+      <c r="Z154" s="4">
         <v>45237</v>
       </c>
-      <c r="AA154" s="3">
+      <c r="AA154" s="4">
         <v>45238</v>
       </c>
       <c r="AB154" s="2">
@@ -18107,7 +18114,7 @@
       <c r="A155" s="2">
         <v>30477</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>45236</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -18177,10 +18184,10 @@
       <c r="Y155" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z155" s="2" t="s">
+      <c r="Z155" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA155" s="3">
+      <c r="AA155" s="4">
         <v>45236</v>
       </c>
       <c r="AB155" s="2">
@@ -18203,7 +18210,7 @@
       <c r="A156" s="2">
         <v>30476</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>45236</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -18273,10 +18280,10 @@
       <c r="Y156" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z156" s="2" t="s">
+      <c r="Z156" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA156" s="3">
+      <c r="AA156" s="4">
         <v>45236</v>
       </c>
       <c r="AB156" s="2">
@@ -18299,7 +18306,7 @@
       <c r="A157" s="2">
         <v>30475</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>45236</v>
       </c>
       <c r="C157" s="2" t="s">
@@ -18369,10 +18376,10 @@
       <c r="Y157" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z157" s="2" t="s">
+      <c r="Z157" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA157" s="3">
+      <c r="AA157" s="4">
         <v>45236</v>
       </c>
       <c r="AB157" s="2">
@@ -18395,7 +18402,7 @@
       <c r="A158" s="2">
         <v>30474</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>45236</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -18465,10 +18472,10 @@
       <c r="Y158" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z158" s="2" t="s">
+      <c r="Z158" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA158" s="3">
+      <c r="AA158" s="4">
         <v>45236</v>
       </c>
       <c r="AB158" s="2">
@@ -18491,7 +18498,7 @@
       <c r="A159" s="2">
         <v>30473</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>45236</v>
       </c>
       <c r="C159" s="2" t="s">
@@ -18561,10 +18568,10 @@
       <c r="Y159" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z159" s="2" t="s">
+      <c r="Z159" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA159" s="3">
+      <c r="AA159" s="4">
         <v>45236</v>
       </c>
       <c r="AB159" s="2">
@@ -18587,7 +18594,7 @@
       <c r="A160" s="2">
         <v>30472</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>45236</v>
       </c>
       <c r="C160" s="2" t="s">
@@ -18659,10 +18666,10 @@
       <c r="Y160" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z160" s="2" t="s">
+      <c r="Z160" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA160" s="3">
+      <c r="AA160" s="4">
         <v>45236</v>
       </c>
       <c r="AB160" s="2">
@@ -18683,7 +18690,7 @@
       <c r="A161" s="2">
         <v>30471</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>45236</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -18755,10 +18762,10 @@
       <c r="Y161" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z161" s="2" t="s">
+      <c r="Z161" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA161" s="3">
+      <c r="AA161" s="4">
         <v>45236</v>
       </c>
       <c r="AB161" s="2">
@@ -18779,7 +18786,7 @@
       <c r="A162" s="2">
         <v>30470</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <v>45236</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -18851,10 +18858,10 @@
       <c r="Y162" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z162" s="2" t="s">
+      <c r="Z162" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA162" s="3">
+      <c r="AA162" s="4">
         <v>45236</v>
       </c>
       <c r="AB162" s="2">
@@ -18875,7 +18882,7 @@
       <c r="A163" s="2">
         <v>30469</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <v>45236</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -18945,10 +18952,10 @@
       <c r="Y163" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z163" s="2" t="s">
+      <c r="Z163" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA163" s="3">
+      <c r="AA163" s="4">
         <v>45236</v>
       </c>
       <c r="AB163" s="2">
@@ -18971,7 +18978,7 @@
       <c r="A164" s="2">
         <v>30468</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>45236</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -19043,10 +19050,10 @@
       <c r="Y164" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z164" s="2" t="s">
+      <c r="Z164" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA164" s="3">
+      <c r="AA164" s="4">
         <v>45236</v>
       </c>
       <c r="AB164" s="2">
@@ -19067,7 +19074,7 @@
       <c r="A165" s="2">
         <v>30467</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>45236</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -19137,10 +19144,10 @@
       <c r="Y165" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z165" s="2" t="s">
+      <c r="Z165" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA165" s="3">
+      <c r="AA165" s="4">
         <v>45236</v>
       </c>
       <c r="AB165" s="2">
@@ -19163,7 +19170,7 @@
       <c r="A166" s="2">
         <v>30466</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>45236</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -19235,10 +19242,10 @@
       <c r="Y166" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z166" s="2" t="s">
+      <c r="Z166" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA166" s="3">
+      <c r="AA166" s="4">
         <v>45236</v>
       </c>
       <c r="AB166" s="2">
@@ -19259,7 +19266,7 @@
       <c r="A167" s="2">
         <v>30465</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <v>45236</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -19331,10 +19338,10 @@
       <c r="Y167" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z167" s="2" t="s">
+      <c r="Z167" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA167" s="3">
+      <c r="AA167" s="4">
         <v>45236</v>
       </c>
       <c r="AB167" s="2">
@@ -19355,7 +19362,7 @@
       <c r="A168" s="2">
         <v>30464</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>45236</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -19425,10 +19432,10 @@
       <c r="Y168" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z168" s="2" t="s">
+      <c r="Z168" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA168" s="3">
+      <c r="AA168" s="4">
         <v>45236</v>
       </c>
       <c r="AB168" s="2">
@@ -19451,7 +19458,7 @@
       <c r="A169" s="2">
         <v>30463</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="4">
         <v>45236</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -19523,10 +19530,10 @@
       <c r="Y169" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z169" s="2" t="s">
+      <c r="Z169" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA169" s="3">
+      <c r="AA169" s="4">
         <v>45236</v>
       </c>
       <c r="AB169" s="2">
@@ -19547,7 +19554,7 @@
       <c r="A170" s="2">
         <v>30462</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="4">
         <v>45236</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -19617,10 +19624,10 @@
       <c r="Y170" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z170" s="2" t="s">
+      <c r="Z170" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA170" s="3">
+      <c r="AA170" s="4">
         <v>45236</v>
       </c>
       <c r="AB170" s="2">
@@ -19643,7 +19650,7 @@
       <c r="A171" s="2">
         <v>30461</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>45236</v>
       </c>
       <c r="C171" s="2" t="s">
@@ -19715,10 +19722,10 @@
       <c r="Y171" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z171" s="2" t="s">
+      <c r="Z171" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA171" s="3">
+      <c r="AA171" s="4">
         <v>45236</v>
       </c>
       <c r="AB171" s="2">
@@ -19739,7 +19746,7 @@
       <c r="A172" s="2">
         <v>30460</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>45236</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -19811,10 +19818,10 @@
       <c r="Y172" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z172" s="2" t="s">
+      <c r="Z172" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA172" s="3">
+      <c r="AA172" s="4">
         <v>45236</v>
       </c>
       <c r="AB172" s="2">
@@ -19835,7 +19842,7 @@
       <c r="A173" s="2">
         <v>30459</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>45236</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -19907,10 +19914,10 @@
       <c r="Y173" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z173" s="2" t="s">
+      <c r="Z173" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA173" s="3">
+      <c r="AA173" s="4">
         <v>45236</v>
       </c>
       <c r="AB173" s="2">
@@ -19931,7 +19938,7 @@
       <c r="A174" s="2">
         <v>30458</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="4">
         <v>45236</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -20001,10 +20008,10 @@
       <c r="Y174" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z174" s="2" t="s">
+      <c r="Z174" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA174" s="3">
+      <c r="AA174" s="4">
         <v>45236</v>
       </c>
       <c r="AB174" s="2">
@@ -20027,7 +20034,7 @@
       <c r="A175" s="2">
         <v>30457</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>45236</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -20099,10 +20106,10 @@
       <c r="Y175" s="2">
         <v>3480000</v>
       </c>
-      <c r="Z175" s="2" t="s">
+      <c r="Z175" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA175" s="2" t="s">
+      <c r="AA175" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB175" s="2">
@@ -20123,7 +20130,7 @@
       <c r="A176" s="2">
         <v>30456</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="4">
         <v>45236</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -20193,10 +20200,10 @@
       <c r="Y176" s="2">
         <v>3480000</v>
       </c>
-      <c r="Z176" s="2" t="s">
+      <c r="Z176" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA176" s="2" t="s">
+      <c r="AA176" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB176" s="2">
@@ -20217,7 +20224,7 @@
       <c r="A177" s="2">
         <v>30455</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="4">
         <v>45236</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -20287,10 +20294,10 @@
         <v>0</v>
       </c>
       <c r="Y177" s="2"/>
-      <c r="Z177" s="2" t="s">
+      <c r="Z177" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA177" s="2" t="s">
+      <c r="AA177" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB177" s="2">
@@ -20311,7 +20318,7 @@
       <c r="A178" s="2">
         <v>30454</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="4">
         <v>45236</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -20383,10 +20390,10 @@
       <c r="Y178" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z178" s="2" t="s">
+      <c r="Z178" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA178" s="3">
+      <c r="AA178" s="4">
         <v>45238</v>
       </c>
       <c r="AB178" s="2">
@@ -20407,7 +20414,7 @@
       <c r="A179" s="2">
         <v>30453</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>45236</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -20479,10 +20486,10 @@
       <c r="Y179" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z179" s="2" t="s">
+      <c r="Z179" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA179" s="3">
+      <c r="AA179" s="4">
         <v>45236</v>
       </c>
       <c r="AB179" s="2">
@@ -20503,7 +20510,7 @@
       <c r="A180" s="2">
         <v>30452</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="4">
         <v>45236</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -20575,10 +20582,10 @@
       <c r="Y180" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z180" s="2" t="s">
+      <c r="Z180" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA180" s="3">
+      <c r="AA180" s="4">
         <v>45236</v>
       </c>
       <c r="AB180" s="2">
@@ -20599,7 +20606,7 @@
       <c r="A181" s="2">
         <v>30451</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="4">
         <v>45236</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -20671,10 +20678,10 @@
       <c r="Y181" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z181" s="2" t="s">
+      <c r="Z181" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA181" s="3">
+      <c r="AA181" s="4">
         <v>45236</v>
       </c>
       <c r="AB181" s="2">
@@ -20695,7 +20702,7 @@
       <c r="A182" s="2">
         <v>30450</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="4">
         <v>45236</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -20767,10 +20774,10 @@
       <c r="Y182" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z182" s="2" t="s">
+      <c r="Z182" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA182" s="3">
+      <c r="AA182" s="4">
         <v>45236</v>
       </c>
       <c r="AB182" s="2">
@@ -20791,7 +20798,7 @@
       <c r="A183" s="2">
         <v>30449</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="4">
         <v>45236</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -20863,10 +20870,10 @@
       <c r="Y183" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z183" s="2" t="s">
+      <c r="Z183" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA183" s="3">
+      <c r="AA183" s="4">
         <v>45236</v>
       </c>
       <c r="AB183" s="2">
@@ -20887,7 +20894,7 @@
       <c r="A184" s="2">
         <v>30448</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="4">
         <v>45236</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -20957,10 +20964,10 @@
       <c r="Y184" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z184" s="2" t="s">
+      <c r="Z184" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA184" s="3">
+      <c r="AA184" s="4">
         <v>45237</v>
       </c>
       <c r="AB184" s="2">
@@ -20983,7 +20990,7 @@
       <c r="A185" s="2">
         <v>30447</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>45236</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -21053,10 +21060,10 @@
       <c r="Y185" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z185" s="2" t="s">
+      <c r="Z185" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA185" s="3">
+      <c r="AA185" s="4">
         <v>45236</v>
       </c>
       <c r="AB185" s="2">
@@ -21079,7 +21086,7 @@
       <c r="A186" s="2">
         <v>30446</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="4">
         <v>45236</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -21151,10 +21158,10 @@
       <c r="Y186" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z186" s="3">
+      <c r="Z186" s="4">
         <v>45236</v>
       </c>
-      <c r="AA186" s="3">
+      <c r="AA186" s="4">
         <v>45236</v>
       </c>
       <c r="AB186" s="2">
@@ -21175,7 +21182,7 @@
       <c r="A187" s="2">
         <v>30445</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="4">
         <v>45236</v>
       </c>
       <c r="C187" s="2" t="s">
@@ -21247,10 +21254,10 @@
       <c r="Y187" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z187" s="3">
+      <c r="Z187" s="4">
         <v>45236</v>
       </c>
-      <c r="AA187" s="3">
+      <c r="AA187" s="4">
         <v>45237</v>
       </c>
       <c r="AB187" s="2">
@@ -21271,7 +21278,7 @@
       <c r="A188" s="2">
         <v>30444</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="4">
         <v>45236</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -21343,10 +21350,10 @@
       <c r="Y188" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z188" s="2" t="s">
+      <c r="Z188" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA188" s="3">
+      <c r="AA188" s="4">
         <v>45236</v>
       </c>
       <c r="AB188" s="2">
@@ -21367,7 +21374,7 @@
       <c r="A189" s="2">
         <v>30443</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="4">
         <v>45236</v>
       </c>
       <c r="C189" s="2" t="s">
@@ -21439,10 +21446,10 @@
       <c r="Y189" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z189" s="2" t="s">
+      <c r="Z189" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA189" s="3">
+      <c r="AA189" s="4">
         <v>45236</v>
       </c>
       <c r="AB189" s="2">
@@ -21463,7 +21470,7 @@
       <c r="A190" s="2">
         <v>30442</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="4">
         <v>45236</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -21535,10 +21542,10 @@
       <c r="Y190" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z190" s="3">
+      <c r="Z190" s="4">
         <v>45236</v>
       </c>
-      <c r="AA190" s="3">
+      <c r="AA190" s="4">
         <v>45236</v>
       </c>
       <c r="AB190" s="2">
@@ -21559,7 +21566,7 @@
       <c r="A191" s="2">
         <v>30441</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="4">
         <v>45236</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -21631,10 +21638,10 @@
       <c r="Y191" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z191" s="2" t="s">
+      <c r="Z191" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA191" s="3">
+      <c r="AA191" s="4">
         <v>45236</v>
       </c>
       <c r="AB191" s="2">
@@ -21655,7 +21662,7 @@
       <c r="A192" s="2">
         <v>30440</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>45236</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -21727,10 +21734,10 @@
       <c r="Y192" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z192" s="2" t="s">
+      <c r="Z192" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA192" s="3">
+      <c r="AA192" s="4">
         <v>45237</v>
       </c>
       <c r="AB192" s="2">
@@ -21751,7 +21758,7 @@
       <c r="A193" s="2">
         <v>30439</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="4">
         <v>45236</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -21821,10 +21828,10 @@
         <v>0</v>
       </c>
       <c r="Y193" s="2"/>
-      <c r="Z193" s="2" t="s">
+      <c r="Z193" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA193" s="2" t="s">
+      <c r="AA193" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB193" s="2">
@@ -21845,7 +21852,7 @@
       <c r="A194" s="2">
         <v>30438</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="4">
         <v>45236</v>
       </c>
       <c r="C194" s="2" t="s">
@@ -21915,10 +21922,10 @@
       <c r="Y194" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z194" s="2" t="s">
+      <c r="Z194" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA194" s="3">
+      <c r="AA194" s="4">
         <v>45236</v>
       </c>
       <c r="AB194" s="2">
@@ -21941,7 +21948,7 @@
       <c r="A195" s="2">
         <v>30437</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="4">
         <v>45236</v>
       </c>
       <c r="C195" s="2" t="s">
@@ -22013,10 +22020,10 @@
       <c r="Y195" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z195" s="2" t="s">
+      <c r="Z195" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA195" s="3">
+      <c r="AA195" s="4">
         <v>45236</v>
       </c>
       <c r="AB195" s="2">
@@ -22037,7 +22044,7 @@
       <c r="A196" s="2">
         <v>30436</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="4">
         <v>45236</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -22107,10 +22114,10 @@
         <v>0</v>
       </c>
       <c r="Y196" s="2"/>
-      <c r="Z196" s="2" t="s">
+      <c r="Z196" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA196" s="2" t="s">
+      <c r="AA196" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB196" s="2">
@@ -22133,7 +22140,7 @@
       <c r="A197" s="2">
         <v>30435</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="4">
         <v>45236</v>
       </c>
       <c r="C197" s="2" t="s">
@@ -22203,10 +22210,10 @@
         <v>0</v>
       </c>
       <c r="Y197" s="2"/>
-      <c r="Z197" s="2" t="s">
+      <c r="Z197" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA197" s="2" t="s">
+      <c r="AA197" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB197" s="2">
@@ -22227,7 +22234,7 @@
       <c r="A198" s="2">
         <v>30434</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="4">
         <v>45236</v>
       </c>
       <c r="C198" s="2" t="s">
@@ -22297,10 +22304,10 @@
         <v>0</v>
       </c>
       <c r="Y198" s="2"/>
-      <c r="Z198" s="2" t="s">
+      <c r="Z198" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA198" s="2" t="s">
+      <c r="AA198" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB198" s="2">
@@ -22321,7 +22328,7 @@
       <c r="A199" s="2">
         <v>30433</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="4">
         <v>45236</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -22391,10 +22398,10 @@
       <c r="Y199" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z199" s="2" t="s">
+      <c r="Z199" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA199" s="3">
+      <c r="AA199" s="4">
         <v>45236</v>
       </c>
       <c r="AB199" s="2">
@@ -22417,7 +22424,7 @@
       <c r="A200" s="2">
         <v>30432</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="4">
         <v>45236</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -22487,10 +22494,10 @@
       <c r="Y200" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z200" s="2" t="s">
+      <c r="Z200" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA200" s="3">
+      <c r="AA200" s="4">
         <v>45236</v>
       </c>
       <c r="AB200" s="2">
@@ -22513,7 +22520,7 @@
       <c r="A201" s="2">
         <v>30431</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="4">
         <v>45236</v>
       </c>
       <c r="C201" s="2" t="s">
@@ -22585,10 +22592,10 @@
       <c r="Y201" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z201" s="2" t="s">
+      <c r="Z201" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA201" s="3">
+      <c r="AA201" s="4">
         <v>45236</v>
       </c>
       <c r="AB201" s="2">
@@ -22609,7 +22616,7 @@
       <c r="A202" s="2">
         <v>30430</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="4">
         <v>45236</v>
       </c>
       <c r="C202" s="2" t="s">
@@ -22681,10 +22688,10 @@
       <c r="Y202" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z202" s="2" t="s">
+      <c r="Z202" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA202" s="3">
+      <c r="AA202" s="4">
         <v>45236</v>
       </c>
       <c r="AB202" s="2">
@@ -22705,7 +22712,7 @@
       <c r="A203" s="2">
         <v>30429</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="4">
         <v>45236</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -22777,10 +22784,10 @@
       <c r="Y203" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z203" s="2" t="s">
+      <c r="Z203" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA203" s="3">
+      <c r="AA203" s="4">
         <v>45236</v>
       </c>
       <c r="AB203" s="2">
@@ -22801,7 +22808,7 @@
       <c r="A204" s="2">
         <v>30428</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="4">
         <v>45236</v>
       </c>
       <c r="C204" s="2" t="s">
@@ -22871,10 +22878,10 @@
       <c r="Y204" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z204" s="2" t="s">
+      <c r="Z204" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA204" s="3">
+      <c r="AA204" s="4">
         <v>45236</v>
       </c>
       <c r="AB204" s="2">
@@ -22897,7 +22904,7 @@
       <c r="A205" s="2">
         <v>30427</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="4">
         <v>45236</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -22969,10 +22976,10 @@
       <c r="Y205" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z205" s="2" t="s">
+      <c r="Z205" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA205" s="3">
+      <c r="AA205" s="4">
         <v>45236</v>
       </c>
       <c r="AB205" s="2">
@@ -22993,7 +23000,7 @@
       <c r="A206" s="2">
         <v>30426</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="4">
         <v>45236</v>
       </c>
       <c r="C206" s="2" t="s">
@@ -23065,10 +23072,10 @@
       <c r="Y206" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z206" s="3">
+      <c r="Z206" s="4">
         <v>45236</v>
       </c>
-      <c r="AA206" s="3">
+      <c r="AA206" s="4">
         <v>45236</v>
       </c>
       <c r="AB206" s="2">
@@ -23089,7 +23096,7 @@
       <c r="A207" s="2">
         <v>30425</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="4">
         <v>45236</v>
       </c>
       <c r="C207" s="2" t="s">
@@ -23161,10 +23168,10 @@
       <c r="Y207" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z207" s="2" t="s">
+      <c r="Z207" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA207" s="3">
+      <c r="AA207" s="4">
         <v>45236</v>
       </c>
       <c r="AB207" s="2">
@@ -23185,7 +23192,7 @@
       <c r="A208" s="2">
         <v>30424</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="4">
         <v>45236</v>
       </c>
       <c r="C208" s="2" t="s">
@@ -23255,10 +23262,10 @@
       <c r="Y208" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z208" s="2" t="s">
+      <c r="Z208" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA208" s="3">
+      <c r="AA208" s="4">
         <v>45236</v>
       </c>
       <c r="AB208" s="2">
@@ -23281,7 +23288,7 @@
       <c r="A209" s="2">
         <v>30423</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="4">
         <v>45236</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -23353,10 +23360,10 @@
       <c r="Y209" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z209" s="2" t="s">
+      <c r="Z209" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA209" s="3">
+      <c r="AA209" s="4">
         <v>45236</v>
       </c>
       <c r="AB209" s="2">
@@ -23377,7 +23384,7 @@
       <c r="A210" s="2">
         <v>30422</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="4">
         <v>45236</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -23449,10 +23456,10 @@
       <c r="Y210" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z210" s="2" t="s">
+      <c r="Z210" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA210" s="3">
+      <c r="AA210" s="4">
         <v>45236</v>
       </c>
       <c r="AB210" s="2">
@@ -23473,7 +23480,7 @@
       <c r="A211" s="2">
         <v>30421</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="4">
         <v>45236</v>
       </c>
       <c r="C211" s="2" t="s">
@@ -23545,10 +23552,10 @@
       <c r="Y211" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z211" s="3">
+      <c r="Z211" s="4">
         <v>45236</v>
       </c>
-      <c r="AA211" s="3">
+      <c r="AA211" s="4">
         <v>45236</v>
       </c>
       <c r="AB211" s="2">
@@ -23569,7 +23576,7 @@
       <c r="A212" s="2">
         <v>30420</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="4">
         <v>45236</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -23639,10 +23646,10 @@
       <c r="Y212" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z212" s="2" t="s">
+      <c r="Z212" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA212" s="3">
+      <c r="AA212" s="4">
         <v>45236</v>
       </c>
       <c r="AB212" s="2">
@@ -23665,7 +23672,7 @@
       <c r="A213" s="2">
         <v>30419</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="4">
         <v>45236</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -23735,10 +23742,10 @@
       <c r="Y213" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z213" s="2" t="s">
+      <c r="Z213" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA213" s="3">
+      <c r="AA213" s="4">
         <v>45236</v>
       </c>
       <c r="AB213" s="2">
@@ -23761,7 +23768,7 @@
       <c r="A214" s="2">
         <v>30418</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="4">
         <v>45234</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -23833,10 +23840,10 @@
       <c r="Y214" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z214" s="2" t="s">
+      <c r="Z214" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA214" s="3">
+      <c r="AA214" s="4">
         <v>45234</v>
       </c>
       <c r="AB214" s="2">
@@ -23857,7 +23864,7 @@
       <c r="A215" s="2">
         <v>30417</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="4">
         <v>45234</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -23927,10 +23934,10 @@
       <c r="Y215" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z215" s="2" t="s">
+      <c r="Z215" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA215" s="3">
+      <c r="AA215" s="4">
         <v>45237</v>
       </c>
       <c r="AB215" s="2">
@@ -23953,7 +23960,7 @@
       <c r="A216" s="2">
         <v>30416</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="4">
         <v>45234</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -24023,10 +24030,10 @@
       <c r="Y216" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z216" s="2" t="s">
+      <c r="Z216" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA216" s="3">
+      <c r="AA216" s="4">
         <v>45234</v>
       </c>
       <c r="AB216" s="2">
@@ -24049,7 +24056,7 @@
       <c r="A217" s="2">
         <v>30415</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="4">
         <v>45234</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -24119,10 +24126,10 @@
         <v>0</v>
       </c>
       <c r="Y217" s="2"/>
-      <c r="Z217" s="2" t="s">
+      <c r="Z217" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA217" s="2" t="s">
+      <c r="AA217" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB217" s="2">
@@ -24143,7 +24150,7 @@
       <c r="A218" s="2">
         <v>30414</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="4">
         <v>45234</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -24213,10 +24220,10 @@
       <c r="Y218" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z218" s="2" t="s">
+      <c r="Z218" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA218" s="3">
+      <c r="AA218" s="4">
         <v>45234</v>
       </c>
       <c r="AB218" s="2">
@@ -24239,7 +24246,7 @@
       <c r="A219" s="2">
         <v>30413</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="4">
         <v>45234</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -24309,10 +24316,10 @@
       <c r="Y219" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z219" s="2" t="s">
+      <c r="Z219" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA219" s="3">
+      <c r="AA219" s="4">
         <v>45236</v>
       </c>
       <c r="AB219" s="2">
@@ -24335,7 +24342,7 @@
       <c r="A220" s="2">
         <v>30412</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="4">
         <v>45234</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -24405,10 +24412,10 @@
       <c r="Y220" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z220" s="2" t="s">
+      <c r="Z220" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA220" s="3">
+      <c r="AA220" s="4">
         <v>45234</v>
       </c>
       <c r="AB220" s="2">
@@ -24431,7 +24438,7 @@
       <c r="A221" s="2">
         <v>30411</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="4">
         <v>45234</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -24501,10 +24508,10 @@
       <c r="Y221" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z221" s="2" t="s">
+      <c r="Z221" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA221" s="3">
+      <c r="AA221" s="4">
         <v>45234</v>
       </c>
       <c r="AB221" s="2">
@@ -24527,7 +24534,7 @@
       <c r="A222" s="2">
         <v>30410</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="4">
         <v>45234</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -24597,10 +24604,10 @@
       <c r="Y222" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z222" s="2" t="s">
+      <c r="Z222" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA222" s="3">
+      <c r="AA222" s="4">
         <v>45234</v>
       </c>
       <c r="AB222" s="2">
@@ -24623,7 +24630,7 @@
       <c r="A223" s="2">
         <v>30409</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="4">
         <v>45234</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -24693,10 +24700,10 @@
       <c r="Y223" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z223" s="2" t="s">
+      <c r="Z223" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA223" s="3">
+      <c r="AA223" s="4">
         <v>45234</v>
       </c>
       <c r="AB223" s="2">
@@ -24719,7 +24726,7 @@
       <c r="A224" s="2">
         <v>30408</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="4">
         <v>45234</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -24791,10 +24798,10 @@
       <c r="Y224" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z224" s="2" t="s">
+      <c r="Z224" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA224" s="3">
+      <c r="AA224" s="4">
         <v>45234</v>
       </c>
       <c r="AB224" s="2">
@@ -24815,7 +24822,7 @@
       <c r="A225" s="2">
         <v>30407</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="4">
         <v>45234</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -24887,10 +24894,10 @@
       <c r="Y225" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z225" s="2" t="s">
+      <c r="Z225" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA225" s="3">
+      <c r="AA225" s="4">
         <v>45234</v>
       </c>
       <c r="AB225" s="2">
@@ -24911,7 +24918,7 @@
       <c r="A226" s="2">
         <v>30406</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="4">
         <v>45234</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -24981,10 +24988,10 @@
         <v>0</v>
       </c>
       <c r="Y226" s="2"/>
-      <c r="Z226" s="2" t="s">
+      <c r="Z226" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA226" s="2" t="s">
+      <c r="AA226" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB226" s="2">
@@ -25005,7 +25012,7 @@
       <c r="A227" s="2">
         <v>30405</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="4">
         <v>45234</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -25075,10 +25082,10 @@
       <c r="Y227" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z227" s="3">
+      <c r="Z227" s="4">
         <v>45234</v>
       </c>
-      <c r="AA227" s="3">
+      <c r="AA227" s="4">
         <v>45238</v>
       </c>
       <c r="AB227" s="2">
@@ -25101,7 +25108,7 @@
       <c r="A228" s="2">
         <v>30404</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="4">
         <v>45234</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -25173,10 +25180,10 @@
       <c r="Y228" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z228" s="2" t="s">
+      <c r="Z228" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA228" s="3">
+      <c r="AA228" s="4">
         <v>45234</v>
       </c>
       <c r="AB228" s="2">
@@ -25197,7 +25204,7 @@
       <c r="A229" s="2">
         <v>30403</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="4">
         <v>45234</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -25269,10 +25276,10 @@
       <c r="Y229" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z229" s="3">
+      <c r="Z229" s="4">
         <v>45234</v>
       </c>
-      <c r="AA229" s="3">
+      <c r="AA229" s="4">
         <v>45234</v>
       </c>
       <c r="AB229" s="2">
@@ -25293,7 +25300,7 @@
       <c r="A230" s="2">
         <v>30402</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="4">
         <v>45234</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -25365,10 +25372,10 @@
       <c r="Y230" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z230" s="3">
+      <c r="Z230" s="4">
         <v>45234</v>
       </c>
-      <c r="AA230" s="3">
+      <c r="AA230" s="4">
         <v>45234</v>
       </c>
       <c r="AB230" s="2">
@@ -25389,7 +25396,7 @@
       <c r="A231" s="2">
         <v>30401</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="4">
         <v>45234</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -25459,10 +25466,10 @@
       <c r="Y231" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z231" s="2" t="s">
+      <c r="Z231" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA231" s="3">
+      <c r="AA231" s="4">
         <v>45234</v>
       </c>
       <c r="AB231" s="2">
@@ -25485,7 +25492,7 @@
       <c r="A232" s="2">
         <v>30400</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="4">
         <v>45234</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -25555,10 +25562,10 @@
       <c r="Y232" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z232" s="2" t="s">
+      <c r="Z232" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA232" s="3">
+      <c r="AA232" s="4">
         <v>45234</v>
       </c>
       <c r="AB232" s="2">
@@ -25581,7 +25588,7 @@
       <c r="A233" s="2">
         <v>30399</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="4">
         <v>45234</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -25653,10 +25660,10 @@
       <c r="Y233" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z233" s="2" t="s">
+      <c r="Z233" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA233" s="3">
+      <c r="AA233" s="4">
         <v>45234</v>
       </c>
       <c r="AB233" s="2">
@@ -25677,7 +25684,7 @@
       <c r="A234" s="2">
         <v>30398</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="4">
         <v>45234</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -25747,10 +25754,10 @@
       <c r="Y234" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z234" s="2" t="s">
+      <c r="Z234" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA234" s="3">
+      <c r="AA234" s="4">
         <v>45234</v>
       </c>
       <c r="AB234" s="2">
@@ -25773,7 +25780,7 @@
       <c r="A235" s="2">
         <v>30397</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="4">
         <v>45234</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -25843,10 +25850,10 @@
       <c r="Y235" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z235" s="2" t="s">
+      <c r="Z235" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA235" s="3">
+      <c r="AA235" s="4">
         <v>45234</v>
       </c>
       <c r="AB235" s="2">
@@ -25869,7 +25876,7 @@
       <c r="A236" s="2">
         <v>30396</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="4">
         <v>45234</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -25941,10 +25948,10 @@
       <c r="Y236" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z236" s="2" t="s">
+      <c r="Z236" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA236" s="3">
+      <c r="AA236" s="4">
         <v>45234</v>
       </c>
       <c r="AB236" s="2">
@@ -25965,7 +25972,7 @@
       <c r="A237" s="2">
         <v>30395</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="4">
         <v>45234</v>
       </c>
       <c r="C237" s="2" t="s">
@@ -26037,10 +26044,10 @@
       <c r="Y237" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z237" s="2" t="s">
+      <c r="Z237" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA237" s="3">
+      <c r="AA237" s="4">
         <v>45234</v>
       </c>
       <c r="AB237" s="2">
@@ -26061,7 +26068,7 @@
       <c r="A238" s="2">
         <v>30394</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="4">
         <v>45234</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -26133,10 +26140,10 @@
       <c r="Y238" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z238" s="2" t="s">
+      <c r="Z238" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA238" s="3">
+      <c r="AA238" s="4">
         <v>45236</v>
       </c>
       <c r="AB238" s="2">
@@ -26157,7 +26164,7 @@
       <c r="A239" s="2">
         <v>30393</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="4">
         <v>45234</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -26227,10 +26234,10 @@
       <c r="Y239" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z239" s="2" t="s">
+      <c r="Z239" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA239" s="3">
+      <c r="AA239" s="4">
         <v>45234</v>
       </c>
       <c r="AB239" s="2">
@@ -26253,7 +26260,7 @@
       <c r="A240" s="2">
         <v>30392</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="4">
         <v>45234</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -26325,10 +26332,10 @@
       <c r="Y240" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z240" s="2" t="s">
+      <c r="Z240" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA240" s="3">
+      <c r="AA240" s="4">
         <v>45234</v>
       </c>
       <c r="AB240" s="2">
@@ -26349,7 +26356,7 @@
       <c r="A241" s="2">
         <v>30391</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="4">
         <v>45234</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -26421,10 +26428,10 @@
       <c r="Y241" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z241" s="2" t="s">
+      <c r="Z241" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA241" s="3">
+      <c r="AA241" s="4">
         <v>45234</v>
       </c>
       <c r="AB241" s="2">
@@ -26445,7 +26452,7 @@
       <c r="A242" s="2">
         <v>30390</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="4">
         <v>45234</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -26517,10 +26524,10 @@
       <c r="Y242" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z242" s="2" t="s">
+      <c r="Z242" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA242" s="3">
+      <c r="AA242" s="4">
         <v>45234</v>
       </c>
       <c r="AB242" s="2">
@@ -26541,7 +26548,7 @@
       <c r="A243" s="2">
         <v>30389</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="4">
         <v>45234</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -26613,10 +26620,10 @@
       <c r="Y243" s="2">
         <v>360000</v>
       </c>
-      <c r="Z243" s="3">
+      <c r="Z243" s="4">
         <v>45234</v>
       </c>
-      <c r="AA243" s="2" t="s">
+      <c r="AA243" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB243" s="2">
@@ -26637,7 +26644,7 @@
       <c r="A244" s="2">
         <v>30388</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="4">
         <v>45234</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -26709,10 +26716,10 @@
       <c r="Y244" s="2">
         <v>360000</v>
       </c>
-      <c r="Z244" s="3">
+      <c r="Z244" s="4">
         <v>45234</v>
       </c>
-      <c r="AA244" s="2" t="s">
+      <c r="AA244" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB244" s="2">
@@ -26733,7 +26740,7 @@
       <c r="A245" s="2">
         <v>30387</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="4">
         <v>45234</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -26805,10 +26812,10 @@
       <c r="Y245" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z245" s="3">
+      <c r="Z245" s="4">
         <v>45234</v>
       </c>
-      <c r="AA245" s="3">
+      <c r="AA245" s="4">
         <v>45234</v>
       </c>
       <c r="AB245" s="2">
@@ -26829,7 +26836,7 @@
       <c r="A246" s="2">
         <v>30386</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="4">
         <v>45234</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -26901,10 +26908,10 @@
       <c r="Y246" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z246" s="2" t="s">
+      <c r="Z246" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA246" s="3">
+      <c r="AA246" s="4">
         <v>45234</v>
       </c>
       <c r="AB246" s="2">
@@ -26925,7 +26932,7 @@
       <c r="A247" s="2">
         <v>30385</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="4">
         <v>45234</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -26997,10 +27004,10 @@
       <c r="Y247" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z247" s="2" t="s">
+      <c r="Z247" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA247" s="3">
+      <c r="AA247" s="4">
         <v>45234</v>
       </c>
       <c r="AB247" s="2">
@@ -27021,7 +27028,7 @@
       <c r="A248" s="2">
         <v>30384</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="4">
         <v>45234</v>
       </c>
       <c r="C248" s="2" t="s">
@@ -27093,10 +27100,10 @@
       <c r="Y248" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z248" s="2" t="s">
+      <c r="Z248" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA248" s="3">
+      <c r="AA248" s="4">
         <v>45234</v>
       </c>
       <c r="AB248" s="2">
@@ -27117,7 +27124,7 @@
       <c r="A249" s="2">
         <v>30383</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="4">
         <v>45234</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -27187,10 +27194,10 @@
       <c r="Y249" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z249" s="2" t="s">
+      <c r="Z249" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA249" s="3">
+      <c r="AA249" s="4">
         <v>45234</v>
       </c>
       <c r="AB249" s="2">
@@ -27213,7 +27220,7 @@
       <c r="A250" s="2">
         <v>30382</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="4">
         <v>45234</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -27285,10 +27292,10 @@
       <c r="Y250" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z250" s="2" t="s">
+      <c r="Z250" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA250" s="3">
+      <c r="AA250" s="4">
         <v>45234</v>
       </c>
       <c r="AB250" s="2">
@@ -27309,7 +27316,7 @@
       <c r="A251" s="2">
         <v>30381</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="4">
         <v>45234</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -27379,10 +27386,10 @@
       <c r="Y251" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z251" s="2" t="s">
+      <c r="Z251" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA251" s="3">
+      <c r="AA251" s="4">
         <v>45234</v>
       </c>
       <c r="AB251" s="2">
@@ -27405,7 +27412,7 @@
       <c r="A252" s="2">
         <v>30380</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="4">
         <v>45234</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -27475,10 +27482,10 @@
       <c r="Y252" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z252" s="2" t="s">
+      <c r="Z252" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA252" s="3">
+      <c r="AA252" s="4">
         <v>45234</v>
       </c>
       <c r="AB252" s="2">
@@ -27501,7 +27508,7 @@
       <c r="A253" s="2">
         <v>30379</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="4">
         <v>45234</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -27571,10 +27578,10 @@
       <c r="Y253" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z253" s="2" t="s">
+      <c r="Z253" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA253" s="3">
+      <c r="AA253" s="4">
         <v>45234</v>
       </c>
       <c r="AB253" s="2">
@@ -27597,7 +27604,7 @@
       <c r="A254" s="2">
         <v>30378</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="4">
         <v>45234</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -27667,10 +27674,10 @@
       <c r="Y254" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z254" s="2" t="s">
+      <c r="Z254" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA254" s="3">
+      <c r="AA254" s="4">
         <v>45234</v>
       </c>
       <c r="AB254" s="2">
@@ -27693,7 +27700,7 @@
       <c r="A255" s="2">
         <v>30377</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="4">
         <v>45234</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -27763,10 +27770,10 @@
       <c r="Y255" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z255" s="2" t="s">
+      <c r="Z255" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA255" s="3">
+      <c r="AA255" s="4">
         <v>45234</v>
       </c>
       <c r="AB255" s="2">
@@ -27789,7 +27796,7 @@
       <c r="A256" s="2">
         <v>30376</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="4">
         <v>45234</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -27859,10 +27866,10 @@
       <c r="Y256" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z256" s="2" t="s">
+      <c r="Z256" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA256" s="3">
+      <c r="AA256" s="4">
         <v>45234</v>
       </c>
       <c r="AB256" s="2">
@@ -27885,7 +27892,7 @@
       <c r="A257" s="2">
         <v>30375</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="4">
         <v>45234</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -27957,10 +27964,10 @@
       <c r="Y257" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z257" s="2" t="s">
+      <c r="Z257" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA257" s="3">
+      <c r="AA257" s="4">
         <v>45234</v>
       </c>
       <c r="AB257" s="2">
@@ -27981,7 +27988,7 @@
       <c r="A258" s="2">
         <v>30374</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="4">
         <v>45234</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -28053,10 +28060,10 @@
       <c r="Y258" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z258" s="2" t="s">
+      <c r="Z258" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA258" s="3">
+      <c r="AA258" s="4">
         <v>45234</v>
       </c>
       <c r="AB258" s="2">
@@ -28077,7 +28084,7 @@
       <c r="A259" s="2">
         <v>30373</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="4">
         <v>45234</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -28149,10 +28156,10 @@
       <c r="Y259" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z259" s="3">
+      <c r="Z259" s="4">
         <v>45234</v>
       </c>
-      <c r="AA259" s="3">
+      <c r="AA259" s="4">
         <v>45237</v>
       </c>
       <c r="AB259" s="2">
@@ -28173,7 +28180,7 @@
       <c r="A260" s="2">
         <v>30372</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="4">
         <v>45234</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -28245,10 +28252,10 @@
       <c r="Y260" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z260" s="2" t="s">
+      <c r="Z260" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA260" s="3">
+      <c r="AA260" s="4">
         <v>45234</v>
       </c>
       <c r="AB260" s="2">
@@ -28269,7 +28276,7 @@
       <c r="A261" s="2">
         <v>30371</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="4">
         <v>45234</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -28341,10 +28348,10 @@
       <c r="Y261" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z261" s="2" t="s">
+      <c r="Z261" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA261" s="3">
+      <c r="AA261" s="4">
         <v>45234</v>
       </c>
       <c r="AB261" s="2">
@@ -28365,7 +28372,7 @@
       <c r="A262" s="2">
         <v>30370</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="4">
         <v>45233</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -28437,10 +28444,10 @@
       <c r="Y262" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z262" s="2" t="s">
+      <c r="Z262" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA262" s="3">
+      <c r="AA262" s="4">
         <v>45233</v>
       </c>
       <c r="AB262" s="2">
@@ -28461,7 +28468,7 @@
       <c r="A263" s="2">
         <v>30369</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="4">
         <v>45233</v>
       </c>
       <c r="C263" s="2" t="s">
@@ -28531,10 +28538,10 @@
       <c r="Y263" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z263" s="2" t="s">
+      <c r="Z263" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA263" s="3">
+      <c r="AA263" s="4">
         <v>45233</v>
       </c>
       <c r="AB263" s="2">
@@ -28557,7 +28564,7 @@
       <c r="A264" s="2">
         <v>30368</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="4">
         <v>45233</v>
       </c>
       <c r="C264" s="2" t="s">
@@ -28627,10 +28634,10 @@
       <c r="Y264" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z264" s="2" t="s">
+      <c r="Z264" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA264" s="3">
+      <c r="AA264" s="4">
         <v>45233</v>
       </c>
       <c r="AB264" s="2">
@@ -28653,7 +28660,7 @@
       <c r="A265" s="2">
         <v>30367</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="4">
         <v>45233</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -28723,10 +28730,10 @@
         <v>0</v>
       </c>
       <c r="Y265" s="2"/>
-      <c r="Z265" s="2" t="s">
+      <c r="Z265" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA265" s="2" t="s">
+      <c r="AA265" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB265" s="2">
@@ -28747,7 +28754,7 @@
       <c r="A266" s="2">
         <v>30366</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="4">
         <v>45233</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -28817,10 +28824,10 @@
       <c r="Y266" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z266" s="2" t="s">
+      <c r="Z266" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA266" s="3">
+      <c r="AA266" s="4">
         <v>45234</v>
       </c>
       <c r="AB266" s="2">
@@ -28843,7 +28850,7 @@
       <c r="A267" s="2">
         <v>30365</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="4">
         <v>45233</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -28915,10 +28922,10 @@
       <c r="Y267" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z267" s="2" t="s">
+      <c r="Z267" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA267" s="3">
+      <c r="AA267" s="4">
         <v>45233</v>
       </c>
       <c r="AB267" s="2">
@@ -28939,7 +28946,7 @@
       <c r="A268" s="2">
         <v>30364</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="4">
         <v>45233</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -29009,10 +29016,10 @@
       <c r="Y268" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z268" s="2" t="s">
+      <c r="Z268" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA268" s="3">
+      <c r="AA268" s="4">
         <v>45233</v>
       </c>
       <c r="AB268" s="2">
@@ -29035,7 +29042,7 @@
       <c r="A269" s="2">
         <v>30363</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="4">
         <v>45233</v>
       </c>
       <c r="C269" s="2" t="s">
@@ -29107,10 +29114,10 @@
       <c r="Y269" s="2">
         <v>46000</v>
       </c>
-      <c r="Z269" s="3">
+      <c r="Z269" s="4">
         <v>45233</v>
       </c>
-      <c r="AA269" s="2" t="s">
+      <c r="AA269" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB269" s="2">
@@ -29131,7 +29138,7 @@
       <c r="A270" s="2">
         <v>30362</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="4">
         <v>45233</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -29201,10 +29208,10 @@
         <v>0</v>
       </c>
       <c r="Y270" s="2"/>
-      <c r="Z270" s="2" t="s">
+      <c r="Z270" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA270" s="2" t="s">
+      <c r="AA270" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB270" s="2">
@@ -29227,7 +29234,7 @@
       <c r="A271" s="2">
         <v>30361</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="4">
         <v>45233</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -29297,10 +29304,10 @@
       <c r="Y271" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z271" s="2" t="s">
+      <c r="Z271" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA271" s="3">
+      <c r="AA271" s="4">
         <v>45233</v>
       </c>
       <c r="AB271" s="2">
@@ -29323,7 +29330,7 @@
       <c r="A272" s="2">
         <v>30360</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="4">
         <v>45233</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -29395,10 +29402,10 @@
       <c r="Y272" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z272" s="2" t="s">
+      <c r="Z272" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA272" s="3">
+      <c r="AA272" s="4">
         <v>45233</v>
       </c>
       <c r="AB272" s="2">
@@ -29419,7 +29426,7 @@
       <c r="A273" s="2">
         <v>30359</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="4">
         <v>45233</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -29491,10 +29498,10 @@
       <c r="Y273" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z273" s="2" t="s">
+      <c r="Z273" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA273" s="3">
+      <c r="AA273" s="4">
         <v>45233</v>
       </c>
       <c r="AB273" s="2">
@@ -29515,7 +29522,7 @@
       <c r="A274" s="2">
         <v>30358</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="4">
         <v>45233</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -29585,10 +29592,10 @@
         <v>0</v>
       </c>
       <c r="Y274" s="2"/>
-      <c r="Z274" s="2" t="s">
+      <c r="Z274" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA274" s="2" t="s">
+      <c r="AA274" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB274" s="2">
@@ -29609,7 +29616,7 @@
       <c r="A275" s="2">
         <v>30357</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="4">
         <v>45233</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -29681,10 +29688,10 @@
       <c r="Y275" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z275" s="2" t="s">
+      <c r="Z275" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA275" s="3">
+      <c r="AA275" s="4">
         <v>45233</v>
       </c>
       <c r="AB275" s="2">
@@ -29705,7 +29712,7 @@
       <c r="A276" s="2">
         <v>30356</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="4">
         <v>45233</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -29775,10 +29782,10 @@
         <v>0</v>
       </c>
       <c r="Y276" s="2"/>
-      <c r="Z276" s="2" t="s">
+      <c r="Z276" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA276" s="2" t="s">
+      <c r="AA276" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB276" s="2">
@@ -29799,7 +29806,7 @@
       <c r="A277" s="2">
         <v>30355</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="4">
         <v>45233</v>
       </c>
       <c r="C277" s="2" t="s">
@@ -29869,10 +29876,10 @@
       <c r="Y277" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z277" s="2" t="s">
+      <c r="Z277" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA277" s="3">
+      <c r="AA277" s="4">
         <v>45233</v>
       </c>
       <c r="AB277" s="2">
@@ -29895,7 +29902,7 @@
       <c r="A278" s="2">
         <v>30354</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="4">
         <v>45233</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -29967,10 +29974,10 @@
       <c r="Y278" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z278" s="3">
+      <c r="Z278" s="4">
         <v>45233</v>
       </c>
-      <c r="AA278" s="3">
+      <c r="AA278" s="4">
         <v>45234</v>
       </c>
       <c r="AB278" s="2">
@@ -29991,7 +29998,7 @@
       <c r="A279" s="2">
         <v>30353</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="4">
         <v>45233</v>
       </c>
       <c r="C279" s="2" t="s">
@@ -30063,10 +30070,10 @@
       <c r="Y279" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z279" s="2" t="s">
+      <c r="Z279" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA279" s="3">
+      <c r="AA279" s="4">
         <v>45233</v>
       </c>
       <c r="AB279" s="2">
@@ -30087,7 +30094,7 @@
       <c r="A280" s="2">
         <v>30352</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="4">
         <v>45233</v>
       </c>
       <c r="C280" s="2" t="s">
@@ -30159,10 +30166,10 @@
       <c r="Y280" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z280" s="2" t="s">
+      <c r="Z280" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA280" s="3">
+      <c r="AA280" s="4">
         <v>45233</v>
       </c>
       <c r="AB280" s="2">
@@ -30183,7 +30190,7 @@
       <c r="A281" s="2">
         <v>30351</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="4">
         <v>45233</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -30251,10 +30258,10 @@
         <v>0</v>
       </c>
       <c r="Y281" s="2"/>
-      <c r="Z281" s="2" t="s">
+      <c r="Z281" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA281" s="2" t="s">
+      <c r="AA281" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB281" s="2">
@@ -30277,7 +30284,7 @@
       <c r="A282" s="2">
         <v>30350</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="4">
         <v>45233</v>
       </c>
       <c r="C282" s="2" t="s">
@@ -30345,10 +30352,10 @@
         <v>0</v>
       </c>
       <c r="Y282" s="2"/>
-      <c r="Z282" s="2" t="s">
+      <c r="Z282" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA282" s="2" t="s">
+      <c r="AA282" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB282" s="2">
@@ -30371,7 +30378,7 @@
       <c r="A283" s="2">
         <v>30349</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="4">
         <v>45233</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -30439,10 +30446,10 @@
         <v>0</v>
       </c>
       <c r="Y283" s="2"/>
-      <c r="Z283" s="2" t="s">
+      <c r="Z283" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA283" s="2" t="s">
+      <c r="AA283" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB283" s="2">
@@ -30465,7 +30472,7 @@
       <c r="A284" s="2">
         <v>30348</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="4">
         <v>45233</v>
       </c>
       <c r="C284" s="2" t="s">
@@ -30537,10 +30544,10 @@
       <c r="Y284" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z284" s="2" t="s">
+      <c r="Z284" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA284" s="3">
+      <c r="AA284" s="4">
         <v>45236</v>
       </c>
       <c r="AB284" s="2">
@@ -30561,7 +30568,7 @@
       <c r="A285" s="2">
         <v>30347</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="4">
         <v>45233</v>
       </c>
       <c r="C285" s="2" t="s">
@@ -30633,10 +30640,10 @@
       <c r="Y285" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z285" s="2" t="s">
+      <c r="Z285" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA285" s="3">
+      <c r="AA285" s="4">
         <v>45233</v>
       </c>
       <c r="AB285" s="2">
@@ -30657,7 +30664,7 @@
       <c r="A286" s="2">
         <v>30346</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="4">
         <v>45233</v>
       </c>
       <c r="C286" s="2" t="s">
@@ -30725,10 +30732,10 @@
         <v>0</v>
       </c>
       <c r="Y286" s="2"/>
-      <c r="Z286" s="2" t="s">
+      <c r="Z286" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA286" s="2" t="s">
+      <c r="AA286" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB286" s="2">
@@ -30749,7 +30756,7 @@
       <c r="A287" s="2">
         <v>30345</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="4">
         <v>45233</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -30819,10 +30826,10 @@
       <c r="Y287" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z287" s="2" t="s">
+      <c r="Z287" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA287" s="3">
+      <c r="AA287" s="4">
         <v>45233</v>
       </c>
       <c r="AB287" s="2">
@@ -30845,7 +30852,7 @@
       <c r="A288" s="2">
         <v>30344</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="4">
         <v>45233</v>
       </c>
       <c r="C288" s="2" t="s">
@@ -30917,10 +30924,10 @@
       <c r="Y288" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z288" s="2" t="s">
+      <c r="Z288" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA288" s="3">
+      <c r="AA288" s="4">
         <v>45233</v>
       </c>
       <c r="AB288" s="2">
@@ -30941,7 +30948,7 @@
       <c r="A289" s="2">
         <v>30343</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="4">
         <v>45233</v>
       </c>
       <c r="C289" s="2" t="s">
@@ -31011,10 +31018,10 @@
       <c r="Y289" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z289" s="2" t="s">
+      <c r="Z289" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA289" s="3">
+      <c r="AA289" s="4">
         <v>45233</v>
       </c>
       <c r="AB289" s="2">
@@ -31037,7 +31044,7 @@
       <c r="A290" s="2">
         <v>30342</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="4">
         <v>45233</v>
       </c>
       <c r="C290" s="2" t="s">
@@ -31109,10 +31116,10 @@
       <c r="Y290" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z290" s="2" t="s">
+      <c r="Z290" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA290" s="3">
+      <c r="AA290" s="4">
         <v>45233</v>
       </c>
       <c r="AB290" s="2">
@@ -31133,7 +31140,7 @@
       <c r="A291" s="2">
         <v>30341</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="4">
         <v>45233</v>
       </c>
       <c r="C291" s="2" t="s">
@@ -31205,10 +31212,10 @@
       <c r="Y291" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z291" s="3">
+      <c r="Z291" s="4">
         <v>45233</v>
       </c>
-      <c r="AA291" s="3">
+      <c r="AA291" s="4">
         <v>45236</v>
       </c>
       <c r="AB291" s="2">
@@ -31229,7 +31236,7 @@
       <c r="A292" s="2">
         <v>30340</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="4">
         <v>45233</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -31299,10 +31306,10 @@
       <c r="Y292" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z292" s="2" t="s">
+      <c r="Z292" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA292" s="3">
+      <c r="AA292" s="4">
         <v>45234</v>
       </c>
       <c r="AB292" s="2">
@@ -31325,7 +31332,7 @@
       <c r="A293" s="2">
         <v>30339</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="4">
         <v>45233</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -31395,10 +31402,10 @@
       <c r="Y293" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z293" s="2" t="s">
+      <c r="Z293" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA293" s="3">
+      <c r="AA293" s="4">
         <v>45233</v>
       </c>
       <c r="AB293" s="2">
@@ -31421,7 +31428,7 @@
       <c r="A294" s="2">
         <v>30338</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="4">
         <v>45233</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -31493,10 +31500,10 @@
       <c r="Y294" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z294" s="3">
+      <c r="Z294" s="4">
         <v>45233</v>
       </c>
-      <c r="AA294" s="3">
+      <c r="AA294" s="4">
         <v>45237</v>
       </c>
       <c r="AB294" s="2">
@@ -31517,7 +31524,7 @@
       <c r="A295" s="2">
         <v>30337</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="4">
         <v>45233</v>
       </c>
       <c r="C295" s="2" t="s">
@@ -31589,10 +31596,10 @@
       <c r="Y295" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z295" s="2" t="s">
+      <c r="Z295" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA295" s="3">
+      <c r="AA295" s="4">
         <v>45233</v>
       </c>
       <c r="AB295" s="2">
@@ -31613,7 +31620,7 @@
       <c r="A296" s="2">
         <v>30336</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="4">
         <v>45233</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -31685,10 +31692,10 @@
       <c r="Y296" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z296" s="2" t="s">
+      <c r="Z296" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA296" s="3">
+      <c r="AA296" s="4">
         <v>45233</v>
       </c>
       <c r="AB296" s="2">
@@ -31709,7 +31716,7 @@
       <c r="A297" s="2">
         <v>30335</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="4">
         <v>45233</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -31781,10 +31788,10 @@
       <c r="Y297" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z297" s="2" t="s">
+      <c r="Z297" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA297" s="3">
+      <c r="AA297" s="4">
         <v>45236</v>
       </c>
       <c r="AB297" s="2">
@@ -31805,7 +31812,7 @@
       <c r="A298" s="2">
         <v>30334</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="4">
         <v>45233</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -31877,10 +31884,10 @@
       <c r="Y298" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z298" s="2" t="s">
+      <c r="Z298" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA298" s="3">
+      <c r="AA298" s="4">
         <v>45233</v>
       </c>
       <c r="AB298" s="2">
@@ -31901,7 +31908,7 @@
       <c r="A299" s="2">
         <v>30333</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="4">
         <v>45233</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -31971,10 +31978,10 @@
       <c r="Y299" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z299" s="2" t="s">
+      <c r="Z299" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA299" s="3">
+      <c r="AA299" s="4">
         <v>45233</v>
       </c>
       <c r="AB299" s="2">
@@ -31997,7 +32004,7 @@
       <c r="A300" s="2">
         <v>30332</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="4">
         <v>45233</v>
       </c>
       <c r="C300" s="2" t="s">
@@ -32067,10 +32074,10 @@
       <c r="Y300" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z300" s="2" t="s">
+      <c r="Z300" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA300" s="3">
+      <c r="AA300" s="4">
         <v>45233</v>
       </c>
       <c r="AB300" s="2">
@@ -32093,7 +32100,7 @@
       <c r="A301" s="2">
         <v>30331</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="4">
         <v>45233</v>
       </c>
       <c r="C301" s="2" t="s">
@@ -32165,10 +32172,10 @@
       <c r="Y301" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z301" s="2" t="s">
+      <c r="Z301" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA301" s="3">
+      <c r="AA301" s="4">
         <v>45233</v>
       </c>
       <c r="AB301" s="2">
@@ -32189,7 +32196,7 @@
       <c r="A302" s="2">
         <v>30330</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="4">
         <v>45233</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -32259,10 +32266,10 @@
       <c r="Y302" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z302" s="3">
+      <c r="Z302" s="4">
         <v>45233</v>
       </c>
-      <c r="AA302" s="3">
+      <c r="AA302" s="4">
         <v>45233</v>
       </c>
       <c r="AB302" s="2">
@@ -32285,7 +32292,7 @@
       <c r="A303" s="2">
         <v>30329</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="4">
         <v>45233</v>
       </c>
       <c r="C303" s="2" t="s">
@@ -32353,10 +32360,10 @@
       <c r="Y303" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z303" s="3">
+      <c r="Z303" s="4">
         <v>45233</v>
       </c>
-      <c r="AA303" s="3">
+      <c r="AA303" s="4">
         <v>45233</v>
       </c>
       <c r="AB303" s="2">
@@ -32379,7 +32386,7 @@
       <c r="A304" s="2">
         <v>30328</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="4">
         <v>45233</v>
       </c>
       <c r="C304" s="2" t="s">
@@ -32451,10 +32458,10 @@
       <c r="Y304" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z304" s="3">
+      <c r="Z304" s="4">
         <v>45233</v>
       </c>
-      <c r="AA304" s="3">
+      <c r="AA304" s="4">
         <v>45233</v>
       </c>
       <c r="AB304" s="2">
@@ -32475,7 +32482,7 @@
       <c r="A305" s="2">
         <v>30327</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="4">
         <v>45233</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -32547,10 +32554,10 @@
       <c r="Y305" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z305" s="3">
+      <c r="Z305" s="4">
         <v>45233</v>
       </c>
-      <c r="AA305" s="3">
+      <c r="AA305" s="4">
         <v>45233</v>
       </c>
       <c r="AB305" s="2">
@@ -32571,7 +32578,7 @@
       <c r="A306" s="2">
         <v>30326</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="4">
         <v>45233</v>
       </c>
       <c r="C306" s="2" t="s">
@@ -32641,10 +32648,10 @@
       <c r="Y306" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z306" s="2" t="s">
+      <c r="Z306" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA306" s="3">
+      <c r="AA306" s="4">
         <v>45233</v>
       </c>
       <c r="AB306" s="2">
@@ -32667,7 +32674,7 @@
       <c r="A307" s="2">
         <v>30325</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="4">
         <v>45233</v>
       </c>
       <c r="C307" s="2" t="s">
@@ -32739,10 +32746,10 @@
       <c r="Y307" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z307" s="2" t="s">
+      <c r="Z307" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA307" s="3">
+      <c r="AA307" s="4">
         <v>45233</v>
       </c>
       <c r="AB307" s="2">
@@ -32763,7 +32770,7 @@
       <c r="A308" s="2">
         <v>30324</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="4">
         <v>45233</v>
       </c>
       <c r="C308" s="2" t="s">
@@ -32835,10 +32842,10 @@
       <c r="Y308" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z308" s="2" t="s">
+      <c r="Z308" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA308" s="3">
+      <c r="AA308" s="4">
         <v>45233</v>
       </c>
       <c r="AB308" s="2">
@@ -32859,7 +32866,7 @@
       <c r="A309" s="2">
         <v>30323</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="4">
         <v>45233</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -32931,10 +32938,10 @@
       <c r="Y309" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z309" s="2" t="s">
+      <c r="Z309" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA309" s="3">
+      <c r="AA309" s="4">
         <v>45233</v>
       </c>
       <c r="AB309" s="2">
@@ -32955,7 +32962,7 @@
       <c r="A310" s="2">
         <v>30322</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="4">
         <v>45233</v>
       </c>
       <c r="C310" s="2" t="s">
@@ -33027,10 +33034,10 @@
       <c r="Y310" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z310" s="2" t="s">
+      <c r="Z310" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA310" s="3">
+      <c r="AA310" s="4">
         <v>45233</v>
       </c>
       <c r="AB310" s="2">
@@ -33051,7 +33058,7 @@
       <c r="A311" s="2">
         <v>30321</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="4">
         <v>45233</v>
       </c>
       <c r="C311" s="2" t="s">
@@ -33123,10 +33130,10 @@
       <c r="Y311" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z311" s="2" t="s">
+      <c r="Z311" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA311" s="3">
+      <c r="AA311" s="4">
         <v>45233</v>
       </c>
       <c r="AB311" s="2">
@@ -33147,7 +33154,7 @@
       <c r="A312" s="2">
         <v>30320</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="4">
         <v>45233</v>
       </c>
       <c r="C312" s="2" t="s">
@@ -33219,10 +33226,10 @@
       <c r="Y312" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z312" s="2" t="s">
+      <c r="Z312" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA312" s="3">
+      <c r="AA312" s="4">
         <v>45233</v>
       </c>
       <c r="AB312" s="2">
@@ -33243,7 +33250,7 @@
       <c r="A313" s="2">
         <v>30319</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="4">
         <v>45233</v>
       </c>
       <c r="C313" s="2" t="s">
@@ -33313,10 +33320,10 @@
       <c r="Y313" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z313" s="2" t="s">
+      <c r="Z313" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA313" s="3">
+      <c r="AA313" s="4">
         <v>45233</v>
       </c>
       <c r="AB313" s="2">
@@ -33339,7 +33346,7 @@
       <c r="A314" s="2">
         <v>30318</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="4">
         <v>45232</v>
       </c>
       <c r="C314" s="2" t="s">
@@ -33411,10 +33418,10 @@
       <c r="Y314" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z314" s="2" t="s">
+      <c r="Z314" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA314" s="3">
+      <c r="AA314" s="4">
         <v>45233</v>
       </c>
       <c r="AB314" s="2">
@@ -33435,7 +33442,7 @@
       <c r="A315" s="2">
         <v>30317</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="4">
         <v>45232</v>
       </c>
       <c r="C315" s="2" t="s">
@@ -33505,10 +33512,10 @@
       <c r="Y315" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z315" s="2" t="s">
+      <c r="Z315" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA315" s="3">
+      <c r="AA315" s="4">
         <v>45232</v>
       </c>
       <c r="AB315" s="2">
@@ -33531,7 +33538,7 @@
       <c r="A316" s="2">
         <v>30316</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="4">
         <v>45232</v>
       </c>
       <c r="C316" s="2" t="s">
@@ -33603,10 +33610,10 @@
       <c r="Y316" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z316" s="2" t="s">
+      <c r="Z316" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA316" s="3">
+      <c r="AA316" s="4">
         <v>45232</v>
       </c>
       <c r="AB316" s="2">
@@ -33627,7 +33634,7 @@
       <c r="A317" s="2">
         <v>30315</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="4">
         <v>45232</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -33699,10 +33706,10 @@
       <c r="Y317" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z317" s="2" t="s">
+      <c r="Z317" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA317" s="3">
+      <c r="AA317" s="4">
         <v>45232</v>
       </c>
       <c r="AB317" s="2">
@@ -33723,7 +33730,7 @@
       <c r="A318" s="2">
         <v>30314</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="4">
         <v>45232</v>
       </c>
       <c r="C318" s="2" t="s">
@@ -33795,10 +33802,10 @@
       <c r="Y318" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z318" s="2" t="s">
+      <c r="Z318" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA318" s="3">
+      <c r="AA318" s="4">
         <v>45232</v>
       </c>
       <c r="AB318" s="2">
@@ -33819,7 +33826,7 @@
       <c r="A319" s="2">
         <v>30313</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="4">
         <v>45232</v>
       </c>
       <c r="C319" s="2" t="s">
@@ -33891,10 +33898,10 @@
       <c r="Y319" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z319" s="2" t="s">
+      <c r="Z319" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA319" s="3">
+      <c r="AA319" s="4">
         <v>45232</v>
       </c>
       <c r="AB319" s="2">
@@ -33915,7 +33922,7 @@
       <c r="A320" s="2">
         <v>30312</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="4">
         <v>45232</v>
       </c>
       <c r="C320" s="2" t="s">
@@ -33987,10 +33994,10 @@
       <c r="Y320" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z320" s="2" t="s">
+      <c r="Z320" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA320" s="3">
+      <c r="AA320" s="4">
         <v>45232</v>
       </c>
       <c r="AB320" s="2">
@@ -34011,7 +34018,7 @@
       <c r="A321" s="2">
         <v>30311</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="4">
         <v>45232</v>
       </c>
       <c r="C321" s="2" t="s">
@@ -34083,10 +34090,10 @@
       <c r="Y321" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z321" s="3">
+      <c r="Z321" s="4">
         <v>45232</v>
       </c>
-      <c r="AA321" s="3">
+      <c r="AA321" s="4">
         <v>45236</v>
       </c>
       <c r="AB321" s="2">
@@ -34107,7 +34114,7 @@
       <c r="A322" s="2">
         <v>30310</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="4">
         <v>45232</v>
       </c>
       <c r="C322" s="2" t="s">
@@ -34179,10 +34186,10 @@
       <c r="Y322" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z322" s="2" t="s">
+      <c r="Z322" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA322" s="3">
+      <c r="AA322" s="4">
         <v>45233</v>
       </c>
       <c r="AB322" s="2">
@@ -34203,7 +34210,7 @@
       <c r="A323" s="2">
         <v>30309</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="4">
         <v>45232</v>
       </c>
       <c r="C323" s="2" t="s">
@@ -34275,10 +34282,10 @@
       <c r="Y323" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z323" s="2" t="s">
+      <c r="Z323" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA323" s="3">
+      <c r="AA323" s="4">
         <v>45232</v>
       </c>
       <c r="AB323" s="2">
@@ -34299,7 +34306,7 @@
       <c r="A324" s="2">
         <v>30308</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="4">
         <v>45232</v>
       </c>
       <c r="C324" s="2" t="s">
@@ -34371,10 +34378,10 @@
       <c r="Y324" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z324" s="2" t="s">
+      <c r="Z324" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA324" s="3">
+      <c r="AA324" s="4">
         <v>45232</v>
       </c>
       <c r="AB324" s="2">
@@ -34395,7 +34402,7 @@
       <c r="A325" s="2">
         <v>30307</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="4">
         <v>45232</v>
       </c>
       <c r="C325" s="2" t="s">
@@ -34465,10 +34472,10 @@
       <c r="Y325" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z325" s="2" t="s">
+      <c r="Z325" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA325" s="3">
+      <c r="AA325" s="4">
         <v>45232</v>
       </c>
       <c r="AB325" s="2">
@@ -34491,7 +34498,7 @@
       <c r="A326" s="2">
         <v>30306</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="4">
         <v>45232</v>
       </c>
       <c r="C326" s="2" t="s">
@@ -34561,10 +34568,10 @@
       <c r="Y326" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z326" s="2" t="s">
+      <c r="Z326" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA326" s="3">
+      <c r="AA326" s="4">
         <v>45232</v>
       </c>
       <c r="AB326" s="2">
@@ -34587,7 +34594,7 @@
       <c r="A327" s="2">
         <v>30305</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="4">
         <v>45232</v>
       </c>
       <c r="C327" s="2" t="s">
@@ -34657,10 +34664,10 @@
       <c r="Y327" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z327" s="2" t="s">
+      <c r="Z327" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA327" s="3">
+      <c r="AA327" s="4">
         <v>45232</v>
       </c>
       <c r="AB327" s="2">
@@ -34683,7 +34690,7 @@
       <c r="A328" s="2">
         <v>30304</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="4">
         <v>45232</v>
       </c>
       <c r="C328" s="2" t="s">
@@ -34755,10 +34762,10 @@
       <c r="Y328" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z328" s="3">
+      <c r="Z328" s="4">
         <v>45232</v>
       </c>
-      <c r="AA328" s="3">
+      <c r="AA328" s="4">
         <v>45237</v>
       </c>
       <c r="AB328" s="2">
@@ -34779,7 +34786,7 @@
       <c r="A329" s="2">
         <v>30303</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="4">
         <v>45232</v>
       </c>
       <c r="C329" s="2" t="s">
@@ -34851,10 +34858,10 @@
       <c r="Y329" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z329" s="2" t="s">
+      <c r="Z329" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA329" s="3">
+      <c r="AA329" s="4">
         <v>45232</v>
       </c>
       <c r="AB329" s="2">
@@ -34875,7 +34882,7 @@
       <c r="A330" s="2">
         <v>30302</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="4">
         <v>45232</v>
       </c>
       <c r="C330" s="2" t="s">
@@ -34945,10 +34952,10 @@
       <c r="Y330" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z330" s="2" t="s">
+      <c r="Z330" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA330" s="3">
+      <c r="AA330" s="4">
         <v>45232</v>
       </c>
       <c r="AB330" s="2">
@@ -34971,7 +34978,7 @@
       <c r="A331" s="2">
         <v>30301</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="4">
         <v>45232</v>
       </c>
       <c r="C331" s="2" t="s">
@@ -35043,10 +35050,10 @@
       <c r="Y331" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z331" s="2" t="s">
+      <c r="Z331" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA331" s="3">
+      <c r="AA331" s="4">
         <v>45232</v>
       </c>
       <c r="AB331" s="2">
@@ -35067,7 +35074,7 @@
       <c r="A332" s="2">
         <v>30300</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="4">
         <v>45232</v>
       </c>
       <c r="C332" s="2" t="s">
@@ -35139,10 +35146,10 @@
       <c r="Y332" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z332" s="3">
+      <c r="Z332" s="4">
         <v>45232</v>
       </c>
-      <c r="AA332" s="3">
+      <c r="AA332" s="4">
         <v>45233</v>
       </c>
       <c r="AB332" s="2">
@@ -35163,7 +35170,7 @@
       <c r="A333" s="2">
         <v>30299</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="4">
         <v>45232</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -35235,10 +35242,10 @@
       <c r="Y333" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z333" s="3">
+      <c r="Z333" s="4">
         <v>45232</v>
       </c>
-      <c r="AA333" s="3">
+      <c r="AA333" s="4">
         <v>45233</v>
       </c>
       <c r="AB333" s="2">
@@ -35259,7 +35266,7 @@
       <c r="A334" s="2">
         <v>30298</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="4">
         <v>45232</v>
       </c>
       <c r="C334" s="2" t="s">
@@ -35331,10 +35338,10 @@
       <c r="Y334" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z334" s="3">
+      <c r="Z334" s="4">
         <v>45232</v>
       </c>
-      <c r="AA334" s="3">
+      <c r="AA334" s="4">
         <v>45233</v>
       </c>
       <c r="AB334" s="2">
@@ -35355,7 +35362,7 @@
       <c r="A335" s="2">
         <v>30297</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="4">
         <v>45232</v>
       </c>
       <c r="C335" s="2" t="s">
@@ -35427,10 +35434,10 @@
       <c r="Y335" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z335" s="2" t="s">
+      <c r="Z335" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA335" s="3">
+      <c r="AA335" s="4">
         <v>45232</v>
       </c>
       <c r="AB335" s="2">
@@ -35451,7 +35458,7 @@
       <c r="A336" s="2">
         <v>30296</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="4">
         <v>45232</v>
       </c>
       <c r="C336" s="2" t="s">
@@ -35523,10 +35530,10 @@
       <c r="Y336" s="2">
         <v>120000</v>
       </c>
-      <c r="Z336" s="2" t="s">
+      <c r="Z336" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA336" s="2" t="s">
+      <c r="AA336" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB336" s="2">
@@ -35547,7 +35554,7 @@
       <c r="A337" s="2">
         <v>30295</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="4">
         <v>45232</v>
       </c>
       <c r="C337" s="2" t="s">
@@ -35617,10 +35624,10 @@
       <c r="Y337" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z337" s="2" t="s">
+      <c r="Z337" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA337" s="3">
+      <c r="AA337" s="4">
         <v>45233</v>
       </c>
       <c r="AB337" s="2">
@@ -35643,7 +35650,7 @@
       <c r="A338" s="2">
         <v>30294</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="4">
         <v>45232</v>
       </c>
       <c r="C338" s="2" t="s">
@@ -35715,10 +35722,10 @@
       <c r="Y338" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z338" s="2" t="s">
+      <c r="Z338" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA338" s="3">
+      <c r="AA338" s="4">
         <v>45232</v>
       </c>
       <c r="AB338" s="2">
@@ -35739,7 +35746,7 @@
       <c r="A339" s="2">
         <v>30293</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="4">
         <v>45232</v>
       </c>
       <c r="C339" s="2" t="s">
@@ -35809,10 +35816,10 @@
       <c r="Y339" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z339" s="2" t="s">
+      <c r="Z339" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA339" s="3">
+      <c r="AA339" s="4">
         <v>45234</v>
       </c>
       <c r="AB339" s="2">
@@ -35835,7 +35842,7 @@
       <c r="A340" s="2">
         <v>30292</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="4">
         <v>45232</v>
       </c>
       <c r="C340" s="2" t="s">
@@ -35905,10 +35912,10 @@
       <c r="Y340" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z340" s="2" t="s">
+      <c r="Z340" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA340" s="3">
+      <c r="AA340" s="4">
         <v>45232</v>
       </c>
       <c r="AB340" s="2">
@@ -35931,7 +35938,7 @@
       <c r="A341" s="2">
         <v>30291</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="4">
         <v>45232</v>
       </c>
       <c r="C341" s="2" t="s">
@@ -36003,10 +36010,10 @@
       <c r="Y341" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z341" s="3">
+      <c r="Z341" s="4">
         <v>45232</v>
       </c>
-      <c r="AA341" s="3">
+      <c r="AA341" s="4">
         <v>45237</v>
       </c>
       <c r="AB341" s="2">
@@ -36027,7 +36034,7 @@
       <c r="A342" s="2">
         <v>30290</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="4">
         <v>45232</v>
       </c>
       <c r="C342" s="2" t="s">
@@ -36097,10 +36104,10 @@
       <c r="Y342" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z342" s="2" t="s">
+      <c r="Z342" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA342" s="3">
+      <c r="AA342" s="4">
         <v>45232</v>
       </c>
       <c r="AB342" s="2">
@@ -36123,7 +36130,7 @@
       <c r="A343" s="2">
         <v>30289</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="4">
         <v>45232</v>
       </c>
       <c r="C343" s="2" t="s">
@@ -36195,10 +36202,10 @@
       <c r="Y343" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z343" s="2" t="s">
+      <c r="Z343" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA343" s="3">
+      <c r="AA343" s="4">
         <v>45233</v>
       </c>
       <c r="AB343" s="2">
@@ -36219,7 +36226,7 @@
       <c r="A344" s="2">
         <v>30288</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="4">
         <v>45232</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -36291,10 +36298,10 @@
       <c r="Y344" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z344" s="2" t="s">
+      <c r="Z344" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA344" s="3">
+      <c r="AA344" s="4">
         <v>45232</v>
       </c>
       <c r="AB344" s="2">
@@ -36315,7 +36322,7 @@
       <c r="A345" s="2">
         <v>30287</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345" s="4">
         <v>45232</v>
       </c>
       <c r="C345" s="2" t="s">
@@ -36387,10 +36394,10 @@
       <c r="Y345" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z345" s="2" t="s">
+      <c r="Z345" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA345" s="3">
+      <c r="AA345" s="4">
         <v>45237</v>
       </c>
       <c r="AB345" s="2">
@@ -36411,7 +36418,7 @@
       <c r="A346" s="2">
         <v>30286</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="4">
         <v>45232</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -36483,10 +36490,10 @@
       <c r="Y346" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z346" s="2" t="s">
+      <c r="Z346" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA346" s="3">
+      <c r="AA346" s="4">
         <v>45232</v>
       </c>
       <c r="AB346" s="2">
@@ -36507,7 +36514,7 @@
       <c r="A347" s="2">
         <v>30285</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="4">
         <v>45232</v>
       </c>
       <c r="C347" s="2" t="s">
@@ -36579,10 +36586,10 @@
       <c r="Y347" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z347" s="2" t="s">
+      <c r="Z347" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA347" s="3">
+      <c r="AA347" s="4">
         <v>45232</v>
       </c>
       <c r="AB347" s="2">
@@ -36603,7 +36610,7 @@
       <c r="A348" s="2">
         <v>30284</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348" s="4">
         <v>45232</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -36675,10 +36682,10 @@
       <c r="Y348" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z348" s="2" t="s">
+      <c r="Z348" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA348" s="3">
+      <c r="AA348" s="4">
         <v>45232</v>
       </c>
       <c r="AB348" s="2">
@@ -36699,7 +36706,7 @@
       <c r="A349" s="2">
         <v>30283</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="4">
         <v>45232</v>
       </c>
       <c r="C349" s="2" t="s">
@@ -36769,10 +36776,10 @@
       <c r="Y349" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z349" s="2" t="s">
+      <c r="Z349" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA349" s="3">
+      <c r="AA349" s="4">
         <v>45232</v>
       </c>
       <c r="AB349" s="2">
@@ -36795,7 +36802,7 @@
       <c r="A350" s="2">
         <v>30282</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="4">
         <v>45232</v>
       </c>
       <c r="C350" s="2" t="s">
@@ -36867,10 +36874,10 @@
       <c r="Y350" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z350" s="2" t="s">
+      <c r="Z350" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA350" s="3">
+      <c r="AA350" s="4">
         <v>45232</v>
       </c>
       <c r="AB350" s="2">
@@ -36891,7 +36898,7 @@
       <c r="A351" s="2">
         <v>30281</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="4">
         <v>45232</v>
       </c>
       <c r="C351" s="2" t="s">
@@ -36963,10 +36970,10 @@
       <c r="Y351" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z351" s="3">
+      <c r="Z351" s="4">
         <v>45232</v>
       </c>
-      <c r="AA351" s="3">
+      <c r="AA351" s="4">
         <v>45236</v>
       </c>
       <c r="AB351" s="2">
@@ -36987,7 +36994,7 @@
       <c r="A352" s="2">
         <v>30280</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="4">
         <v>45232</v>
       </c>
       <c r="C352" s="2" t="s">
@@ -37059,10 +37066,10 @@
       <c r="Y352" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z352" s="3">
+      <c r="Z352" s="4">
         <v>45232</v>
       </c>
-      <c r="AA352" s="3">
+      <c r="AA352" s="4">
         <v>45236</v>
       </c>
       <c r="AB352" s="2">
@@ -37083,7 +37090,7 @@
       <c r="A353" s="2">
         <v>30279</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="4">
         <v>45232</v>
       </c>
       <c r="C353" s="2" t="s">
@@ -37153,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="Y353" s="2"/>
-      <c r="Z353" s="2" t="s">
+      <c r="Z353" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA353" s="2" t="s">
+      <c r="AA353" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB353" s="2">
@@ -37177,7 +37184,7 @@
       <c r="A354" s="2">
         <v>30278</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="4">
         <v>45232</v>
       </c>
       <c r="C354" s="2" t="s">
@@ -37247,10 +37254,10 @@
         <v>0</v>
       </c>
       <c r="Y354" s="2"/>
-      <c r="Z354" s="2" t="s">
+      <c r="Z354" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA354" s="2" t="s">
+      <c r="AA354" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB354" s="2">
@@ -37271,7 +37278,7 @@
       <c r="A355" s="2">
         <v>30277</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="4">
         <v>45232</v>
       </c>
       <c r="C355" s="2" t="s">
@@ -37341,10 +37348,10 @@
         <v>0</v>
       </c>
       <c r="Y355" s="2"/>
-      <c r="Z355" s="2" t="s">
+      <c r="Z355" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA355" s="2" t="s">
+      <c r="AA355" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB355" s="2">
@@ -37365,7 +37372,7 @@
       <c r="A356" s="2">
         <v>30276</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="4">
         <v>45232</v>
       </c>
       <c r="C356" s="2" t="s">
@@ -37437,10 +37444,10 @@
       <c r="Y356" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z356" s="2" t="s">
+      <c r="Z356" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA356" s="3">
+      <c r="AA356" s="4">
         <v>45236</v>
       </c>
       <c r="AB356" s="2">
@@ -37461,7 +37468,7 @@
       <c r="A357" s="2">
         <v>30275</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="4">
         <v>45232</v>
       </c>
       <c r="C357" s="2" t="s">
@@ -37531,10 +37538,10 @@
       <c r="Y357" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z357" s="2" t="s">
+      <c r="Z357" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA357" s="3">
+      <c r="AA357" s="4">
         <v>45232</v>
       </c>
       <c r="AB357" s="2">
@@ -37557,7 +37564,7 @@
       <c r="A358" s="2">
         <v>30274</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="4">
         <v>45231</v>
       </c>
       <c r="C358" s="2" t="s">
@@ -37629,10 +37636,10 @@
       <c r="Y358" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z358" s="2" t="s">
+      <c r="Z358" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA358" s="3">
+      <c r="AA358" s="4">
         <v>45231</v>
       </c>
       <c r="AB358" s="2">
@@ -37653,7 +37660,7 @@
       <c r="A359" s="2">
         <v>30273</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="4">
         <v>45231</v>
       </c>
       <c r="C359" s="2" t="s">
@@ -37725,10 +37732,10 @@
       <c r="Y359" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z359" s="2" t="s">
+      <c r="Z359" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA359" s="3">
+      <c r="AA359" s="4">
         <v>45231</v>
       </c>
       <c r="AB359" s="2">
@@ -37749,7 +37756,7 @@
       <c r="A360" s="2">
         <v>30272</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="4">
         <v>45231</v>
       </c>
       <c r="C360" s="2" t="s">
@@ -37821,10 +37828,10 @@
       <c r="Y360" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z360" s="2" t="s">
+      <c r="Z360" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA360" s="3">
+      <c r="AA360" s="4">
         <v>45231</v>
       </c>
       <c r="AB360" s="2">
@@ -37845,7 +37852,7 @@
       <c r="A361" s="2">
         <v>30271</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="4">
         <v>45231</v>
       </c>
       <c r="C361" s="2" t="s">
@@ -37915,10 +37922,10 @@
       <c r="Y361" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z361" s="2" t="s">
+      <c r="Z361" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA361" s="3">
+      <c r="AA361" s="4">
         <v>45231</v>
       </c>
       <c r="AB361" s="2">
@@ -37941,7 +37948,7 @@
       <c r="A362" s="2">
         <v>30270</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="4">
         <v>45231</v>
       </c>
       <c r="C362" s="2" t="s">
@@ -38013,10 +38020,10 @@
       <c r="Y362" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z362" s="2" t="s">
+      <c r="Z362" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA362" s="3">
+      <c r="AA362" s="4">
         <v>45231</v>
       </c>
       <c r="AB362" s="2">
@@ -38037,7 +38044,7 @@
       <c r="A363" s="2">
         <v>30269</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363" s="4">
         <v>45231</v>
       </c>
       <c r="C363" s="2" t="s">
@@ -38107,10 +38114,10 @@
       <c r="Y363" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z363" s="2" t="s">
+      <c r="Z363" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA363" s="3">
+      <c r="AA363" s="4">
         <v>45231</v>
       </c>
       <c r="AB363" s="2">
@@ -38133,7 +38140,7 @@
       <c r="A364" s="2">
         <v>30268</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="4">
         <v>45231</v>
       </c>
       <c r="C364" s="2" t="s">
@@ -38203,10 +38210,10 @@
       <c r="Y364" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z364" s="2" t="s">
+      <c r="Z364" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA364" s="3">
+      <c r="AA364" s="4">
         <v>45231</v>
       </c>
       <c r="AB364" s="2">
@@ -38229,7 +38236,7 @@
       <c r="A365" s="2">
         <v>30266</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="4">
         <v>45231</v>
       </c>
       <c r="C365" s="2" t="s">
@@ -38299,10 +38306,10 @@
       <c r="Y365" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z365" s="2" t="s">
+      <c r="Z365" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA365" s="3">
+      <c r="AA365" s="4">
         <v>45233</v>
       </c>
       <c r="AB365" s="2">
@@ -38325,7 +38332,7 @@
       <c r="A366" s="2">
         <v>30265</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="4">
         <v>45231</v>
       </c>
       <c r="C366" s="2" t="s">
@@ -38397,10 +38404,10 @@
       <c r="Y366" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z366" s="2" t="s">
+      <c r="Z366" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA366" s="3">
+      <c r="AA366" s="4">
         <v>45233</v>
       </c>
       <c r="AB366" s="2">
@@ -38421,7 +38428,7 @@
       <c r="A367" s="2">
         <v>30264</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="4">
         <v>45231</v>
       </c>
       <c r="C367" s="2" t="s">
@@ -38493,10 +38500,10 @@
       <c r="Y367" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z367" s="2" t="s">
+      <c r="Z367" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA367" s="3">
+      <c r="AA367" s="4">
         <v>45231</v>
       </c>
       <c r="AB367" s="2">
@@ -38517,7 +38524,7 @@
       <c r="A368" s="2">
         <v>30263</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="4">
         <v>45231</v>
       </c>
       <c r="C368" s="2" t="s">
@@ -38587,10 +38594,10 @@
       <c r="Y368" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z368" s="2" t="s">
+      <c r="Z368" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA368" s="3">
+      <c r="AA368" s="4">
         <v>45231</v>
       </c>
       <c r="AB368" s="2">
@@ -38613,7 +38620,7 @@
       <c r="A369" s="2">
         <v>30262</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="4">
         <v>45231</v>
       </c>
       <c r="C369" s="2" t="s">
@@ -38685,10 +38692,10 @@
       <c r="Y369" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z369" s="2" t="s">
+      <c r="Z369" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA369" s="3">
+      <c r="AA369" s="4">
         <v>45231</v>
       </c>
       <c r="AB369" s="2">
@@ -38709,7 +38716,7 @@
       <c r="A370" s="2">
         <v>30261</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="4">
         <v>45231</v>
       </c>
       <c r="C370" s="2" t="s">
@@ -38779,10 +38786,10 @@
       <c r="Y370" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z370" s="2" t="s">
+      <c r="Z370" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA370" s="3">
+      <c r="AA370" s="4">
         <v>45231</v>
       </c>
       <c r="AB370" s="2">
@@ -38805,7 +38812,7 @@
       <c r="A371" s="2">
         <v>30260</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="4">
         <v>45231</v>
       </c>
       <c r="C371" s="2" t="s">
@@ -38877,10 +38884,10 @@
       <c r="Y371" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z371" s="2" t="s">
+      <c r="Z371" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA371" s="3">
+      <c r="AA371" s="4">
         <v>45231</v>
       </c>
       <c r="AB371" s="2">
@@ -38901,7 +38908,7 @@
       <c r="A372" s="2">
         <v>30259</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="4">
         <v>45231</v>
       </c>
       <c r="C372" s="2" t="s">
@@ -38973,10 +38980,10 @@
       <c r="Y372" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z372" s="2" t="s">
+      <c r="Z372" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA372" s="3">
+      <c r="AA372" s="4">
         <v>45231</v>
       </c>
       <c r="AB372" s="2">
@@ -38997,7 +39004,7 @@
       <c r="A373" s="2">
         <v>30258</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="4">
         <v>45231</v>
       </c>
       <c r="C373" s="2" t="s">
@@ -39069,10 +39076,10 @@
       <c r="Y373" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z373" s="3">
+      <c r="Z373" s="4">
         <v>45231</v>
       </c>
-      <c r="AA373" s="3">
+      <c r="AA373" s="4">
         <v>45232</v>
       </c>
       <c r="AB373" s="2">
@@ -39093,7 +39100,7 @@
       <c r="A374" s="2">
         <v>30257</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="4">
         <v>45231</v>
       </c>
       <c r="C374" s="2" t="s">
@@ -39165,10 +39172,10 @@
       <c r="Y374" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z374" s="2" t="s">
+      <c r="Z374" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA374" s="3">
+      <c r="AA374" s="4">
         <v>45231</v>
       </c>
       <c r="AB374" s="2">
@@ -39189,7 +39196,7 @@
       <c r="A375" s="2">
         <v>30256</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375" s="4">
         <v>45231</v>
       </c>
       <c r="C375" s="2" t="s">
@@ -39261,10 +39268,10 @@
       <c r="Y375" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z375" s="2" t="s">
+      <c r="Z375" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA375" s="3">
+      <c r="AA375" s="4">
         <v>45231</v>
       </c>
       <c r="AB375" s="2">
@@ -39285,7 +39292,7 @@
       <c r="A376" s="2">
         <v>30255</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="4">
         <v>45231</v>
       </c>
       <c r="C376" s="2" t="s">
@@ -39357,10 +39364,10 @@
       <c r="Y376" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z376" s="2" t="s">
+      <c r="Z376" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA376" s="3">
+      <c r="AA376" s="4">
         <v>45232</v>
       </c>
       <c r="AB376" s="2">
@@ -39381,7 +39388,7 @@
       <c r="A377" s="2">
         <v>30254</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377" s="4">
         <v>45231</v>
       </c>
       <c r="C377" s="2" t="s">
@@ -39453,10 +39460,10 @@
       <c r="Y377" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z377" s="2" t="s">
+      <c r="Z377" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA377" s="3">
+      <c r="AA377" s="4">
         <v>45232</v>
       </c>
       <c r="AB377" s="2">
@@ -39477,7 +39484,7 @@
       <c r="A378" s="2">
         <v>30253</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378" s="4">
         <v>45231</v>
       </c>
       <c r="C378" s="2" t="s">
@@ -39549,10 +39556,10 @@
       <c r="Y378" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z378" s="2" t="s">
+      <c r="Z378" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA378" s="3">
+      <c r="AA378" s="4">
         <v>45232</v>
       </c>
       <c r="AB378" s="2">
@@ -39573,7 +39580,7 @@
       <c r="A379" s="2">
         <v>30252</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379" s="4">
         <v>45231</v>
       </c>
       <c r="C379" s="2" t="s">
@@ -39643,10 +39650,10 @@
       <c r="Y379" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z379" s="2" t="s">
+      <c r="Z379" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA379" s="3">
+      <c r="AA379" s="4">
         <v>45231</v>
       </c>
       <c r="AB379" s="2">
@@ -39669,7 +39676,7 @@
       <c r="A380" s="2">
         <v>30251</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380" s="4">
         <v>45231</v>
       </c>
       <c r="C380" s="2" t="s">
@@ -39739,10 +39746,10 @@
       <c r="Y380" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z380" s="2" t="s">
+      <c r="Z380" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA380" s="3">
+      <c r="AA380" s="4">
         <v>45231</v>
       </c>
       <c r="AB380" s="2">
@@ -39765,7 +39772,7 @@
       <c r="A381" s="2">
         <v>30250</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381" s="4">
         <v>45231</v>
       </c>
       <c r="C381" s="2" t="s">
@@ -39837,10 +39844,10 @@
       <c r="Y381" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z381" s="3">
+      <c r="Z381" s="4">
         <v>45231</v>
       </c>
-      <c r="AA381" s="3">
+      <c r="AA381" s="4">
         <v>45232</v>
       </c>
       <c r="AB381" s="2">
@@ -39861,7 +39868,7 @@
       <c r="A382" s="2">
         <v>30249</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382" s="4">
         <v>45231</v>
       </c>
       <c r="C382" s="2" t="s">
@@ -39933,10 +39940,10 @@
       <c r="Y382" s="2">
         <v>280000</v>
       </c>
-      <c r="Z382" s="3">
+      <c r="Z382" s="4">
         <v>45232</v>
       </c>
-      <c r="AA382" s="2" t="s">
+      <c r="AA382" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB382" s="2">
@@ -39957,7 +39964,7 @@
       <c r="A383" s="2">
         <v>30248</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383" s="4">
         <v>45231</v>
       </c>
       <c r="C383" s="2" t="s">
@@ -40029,10 +40036,10 @@
       <c r="Y383" s="2">
         <v>280000</v>
       </c>
-      <c r="Z383" s="3">
+      <c r="Z383" s="4">
         <v>45232</v>
       </c>
-      <c r="AA383" s="2" t="s">
+      <c r="AA383" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB383" s="2">
@@ -40053,7 +40060,7 @@
       <c r="A384" s="2">
         <v>30247</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384" s="4">
         <v>45231</v>
       </c>
       <c r="C384" s="2" t="s">
@@ -40125,10 +40132,10 @@
       <c r="Y384" s="2">
         <v>280000</v>
       </c>
-      <c r="Z384" s="3">
+      <c r="Z384" s="4">
         <v>45232</v>
       </c>
-      <c r="AA384" s="2" t="s">
+      <c r="AA384" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB384" s="2">
@@ -40149,7 +40156,7 @@
       <c r="A385" s="2">
         <v>30246</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385" s="4">
         <v>45231</v>
       </c>
       <c r="C385" s="2" t="s">
@@ -40219,10 +40226,10 @@
       <c r="Y385" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z385" s="2" t="s">
+      <c r="Z385" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA385" s="3">
+      <c r="AA385" s="4">
         <v>45231</v>
       </c>
       <c r="AB385" s="2">
@@ -40245,7 +40252,7 @@
       <c r="A386" s="2">
         <v>30245</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386" s="4">
         <v>45231</v>
       </c>
       <c r="C386" s="2" t="s">
@@ -40317,10 +40324,10 @@
       <c r="Y386" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z386" s="2" t="s">
+      <c r="Z386" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA386" s="3">
+      <c r="AA386" s="4">
         <v>45232</v>
       </c>
       <c r="AB386" s="2">
@@ -40341,7 +40348,7 @@
       <c r="A387" s="2">
         <v>30244</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387" s="4">
         <v>45231</v>
       </c>
       <c r="C387" s="2" t="s">
@@ -40411,10 +40418,10 @@
       <c r="Y387" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z387" s="2" t="s">
+      <c r="Z387" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA387" s="3">
+      <c r="AA387" s="4">
         <v>45231</v>
       </c>
       <c r="AB387" s="2">
@@ -40437,7 +40444,7 @@
       <c r="A388" s="2">
         <v>30243</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388" s="4">
         <v>45231</v>
       </c>
       <c r="C388" s="2" t="s">
@@ -40507,10 +40514,10 @@
       <c r="Y388" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z388" s="2" t="s">
+      <c r="Z388" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA388" s="3">
+      <c r="AA388" s="4">
         <v>45232</v>
       </c>
       <c r="AB388" s="2">
@@ -40533,7 +40540,7 @@
       <c r="A389" s="2">
         <v>30242</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389" s="4">
         <v>45231</v>
       </c>
       <c r="C389" s="2" t="s">
@@ -40605,10 +40612,10 @@
       <c r="Y389" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z389" s="2" t="s">
+      <c r="Z389" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA389" s="3">
+      <c r="AA389" s="4">
         <v>45231</v>
       </c>
       <c r="AB389" s="2">
@@ -40629,7 +40636,7 @@
       <c r="A390" s="2">
         <v>30241</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390" s="4">
         <v>45231</v>
       </c>
       <c r="C390" s="2" t="s">
@@ -40701,10 +40708,10 @@
       <c r="Y390" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z390" s="3">
+      <c r="Z390" s="4">
         <v>45231</v>
       </c>
-      <c r="AA390" s="3">
+      <c r="AA390" s="4">
         <v>45231</v>
       </c>
       <c r="AB390" s="2">
@@ -40725,7 +40732,7 @@
       <c r="A391" s="2">
         <v>30240</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391" s="4">
         <v>45231</v>
       </c>
       <c r="C391" s="2" t="s">
@@ -40797,10 +40804,10 @@
       <c r="Y391" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z391" s="3">
+      <c r="Z391" s="4">
         <v>45231</v>
       </c>
-      <c r="AA391" s="3">
+      <c r="AA391" s="4">
         <v>45234</v>
       </c>
       <c r="AB391" s="2">
@@ -40821,7 +40828,7 @@
       <c r="A392" s="2">
         <v>30239</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392" s="4">
         <v>45231</v>
       </c>
       <c r="C392" s="2" t="s">
@@ -40893,10 +40900,10 @@
       <c r="Y392" s="2">
         <v>900000</v>
       </c>
-      <c r="Z392" s="2" t="s">
+      <c r="Z392" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA392" s="2" t="s">
+      <c r="AA392" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AB392" s="2">
@@ -40917,7 +40924,7 @@
       <c r="A393" s="2">
         <v>30238</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393" s="4">
         <v>45231</v>
       </c>
       <c r="C393" s="2" t="s">
@@ -40989,10 +40996,10 @@
       <c r="Y393" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z393" s="2" t="s">
+      <c r="Z393" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA393" s="3">
+      <c r="AA393" s="4">
         <v>45231</v>
       </c>
       <c r="AB393" s="2">
@@ -41013,7 +41020,7 @@
       <c r="A394" s="2">
         <v>30237</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394" s="4">
         <v>45231</v>
       </c>
       <c r="C394" s="2" t="s">
@@ -41085,10 +41092,10 @@
       <c r="Y394" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z394" s="2" t="s">
+      <c r="Z394" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA394" s="3">
+      <c r="AA394" s="4">
         <v>45231</v>
       </c>
       <c r="AB394" s="2">
@@ -41109,7 +41116,7 @@
       <c r="A395" s="2">
         <v>30236</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395" s="4">
         <v>45231</v>
       </c>
       <c r="C395" s="2" t="s">
@@ -41181,10 +41188,10 @@
       <c r="Y395" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z395" s="2" t="s">
+      <c r="Z395" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA395" s="3">
+      <c r="AA395" s="4">
         <v>45232</v>
       </c>
       <c r="AB395" s="2">
@@ -41205,7 +41212,7 @@
       <c r="A396" s="2">
         <v>30235</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396" s="4">
         <v>45231</v>
       </c>
       <c r="C396" s="2" t="s">
@@ -41277,10 +41284,10 @@
       <c r="Y396" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z396" s="2" t="s">
+      <c r="Z396" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA396" s="3">
+      <c r="AA396" s="4">
         <v>45231</v>
       </c>
       <c r="AB396" s="2">
@@ -41301,7 +41308,7 @@
       <c r="A397" s="2">
         <v>30234</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397" s="4">
         <v>45231</v>
       </c>
       <c r="C397" s="2" t="s">
@@ -41373,10 +41380,10 @@
       <c r="Y397" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z397" s="2" t="s">
+      <c r="Z397" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA397" s="3">
+      <c r="AA397" s="4">
         <v>45232</v>
       </c>
       <c r="AB397" s="2">
@@ -41397,7 +41404,7 @@
       <c r="A398" s="2">
         <v>30233</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398" s="4">
         <v>45231</v>
       </c>
       <c r="C398" s="2" t="s">
@@ -41469,10 +41476,10 @@
       <c r="Y398" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z398" s="2" t="s">
+      <c r="Z398" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA398" s="3">
+      <c r="AA398" s="4">
         <v>45231</v>
       </c>
       <c r="AB398" s="2">
@@ -41493,7 +41500,7 @@
       <c r="A399" s="2">
         <v>30232</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399" s="4">
         <v>45231</v>
       </c>
       <c r="C399" s="2" t="s">
@@ -41565,10 +41572,10 @@
       <c r="Y399" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z399" s="2" t="s">
+      <c r="Z399" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA399" s="3">
+      <c r="AA399" s="4">
         <v>45231</v>
       </c>
       <c r="AB399" s="2">
@@ -41589,7 +41596,7 @@
       <c r="A400" s="2">
         <v>30231</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="4">
         <v>45231</v>
       </c>
       <c r="C400" s="2" t="s">
@@ -41659,10 +41666,10 @@
       <c r="Y400" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z400" s="2" t="s">
+      <c r="Z400" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA400" s="3">
+      <c r="AA400" s="4">
         <v>45231</v>
       </c>
       <c r="AB400" s="2">
@@ -41685,7 +41692,7 @@
       <c r="A401" s="2">
         <v>30230</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="4">
         <v>45231</v>
       </c>
       <c r="C401" s="2" t="s">
@@ -41757,10 +41764,10 @@
       <c r="Y401" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z401" s="2" t="s">
+      <c r="Z401" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA401" s="3">
+      <c r="AA401" s="4">
         <v>45231</v>
       </c>
       <c r="AB401" s="2">
@@ -41781,7 +41788,7 @@
       <c r="A402" s="2">
         <v>30229</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402" s="4">
         <v>45231</v>
       </c>
       <c r="C402" s="2" t="s">
@@ -41853,10 +41860,10 @@
       <c r="Y402" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z402" s="2" t="s">
+      <c r="Z402" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA402" s="3">
+      <c r="AA402" s="4">
         <v>45231</v>
       </c>
       <c r="AB402" s="2">
@@ -41877,7 +41884,7 @@
       <c r="A403" s="2">
         <v>30228</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403" s="4">
         <v>45231</v>
       </c>
       <c r="C403" s="2" t="s">
@@ -41949,10 +41956,10 @@
       <c r="Y403" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z403" s="2" t="s">
+      <c r="Z403" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA403" s="3">
+      <c r="AA403" s="4">
         <v>45231</v>
       </c>
       <c r="AB403" s="2">
@@ -41973,7 +41980,7 @@
       <c r="A404" s="2">
         <v>30227</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404" s="4">
         <v>45231</v>
       </c>
       <c r="C404" s="2" t="s">
@@ -42045,10 +42052,10 @@
       <c r="Y404" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z404" s="2" t="s">
+      <c r="Z404" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA404" s="3">
+      <c r="AA404" s="4">
         <v>45231</v>
       </c>
       <c r="AB404" s="2">
@@ -42069,7 +42076,7 @@
       <c r="A405" s="2">
         <v>30226</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405" s="4">
         <v>45231</v>
       </c>
       <c r="C405" s="2" t="s">
@@ -42141,10 +42148,10 @@
       <c r="Y405" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z405" s="2" t="s">
+      <c r="Z405" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA405" s="3">
+      <c r="AA405" s="4">
         <v>45231</v>
       </c>
       <c r="AB405" s="2">
@@ -42165,7 +42172,7 @@
       <c r="A406" s="2">
         <v>30225</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406" s="4">
         <v>45231</v>
       </c>
       <c r="C406" s="2" t="s">
@@ -42237,10 +42244,10 @@
       <c r="Y406" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z406" s="2" t="s">
+      <c r="Z406" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA406" s="3">
+      <c r="AA406" s="4">
         <v>45231</v>
       </c>
       <c r="AB406" s="2">
@@ -42261,7 +42268,7 @@
       <c r="A407" s="2">
         <v>30224</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407" s="4">
         <v>45231</v>
       </c>
       <c r="C407" s="2" t="s">
@@ -42333,10 +42340,10 @@
       <c r="Y407" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z407" s="2" t="s">
+      <c r="Z407" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA407" s="3">
+      <c r="AA407" s="4">
         <v>45231</v>
       </c>
       <c r="AB407" s="2">
@@ -42357,7 +42364,7 @@
       <c r="A408" s="2">
         <v>30223</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408" s="4">
         <v>45231</v>
       </c>
       <c r="C408" s="2" t="s">
@@ -42427,10 +42434,10 @@
       <c r="Y408" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z408" s="2" t="s">
+      <c r="Z408" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA408" s="3">
+      <c r="AA408" s="4">
         <v>45231</v>
       </c>
       <c r="AB408" s="2">
@@ -42453,7 +42460,7 @@
       <c r="A409" s="2">
         <v>30222</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409" s="4">
         <v>45231</v>
       </c>
       <c r="C409" s="2" t="s">
@@ -42523,10 +42530,10 @@
       <c r="Y409" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z409" s="3">
+      <c r="Z409" s="4">
         <v>45231</v>
       </c>
-      <c r="AA409" s="3">
+      <c r="AA409" s="4">
         <v>45231</v>
       </c>
       <c r="AB409" s="2">
@@ -42549,7 +42556,7 @@
       <c r="A410" s="2">
         <v>30221</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410" s="4">
         <v>45231</v>
       </c>
       <c r="C410" s="2" t="s">
@@ -42619,10 +42626,10 @@
       <c r="Y410" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z410" s="3">
+      <c r="Z410" s="4">
         <v>45231</v>
       </c>
-      <c r="AA410" s="3">
+      <c r="AA410" s="4">
         <v>45231</v>
       </c>
       <c r="AB410" s="2">
@@ -42645,7 +42652,7 @@
       <c r="A411" s="2">
         <v>30220</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411" s="4">
         <v>45231</v>
       </c>
       <c r="C411" s="2" t="s">
@@ -42715,10 +42722,10 @@
       <c r="Y411" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z411" s="3">
+      <c r="Z411" s="4">
         <v>45231</v>
       </c>
-      <c r="AA411" s="3">
+      <c r="AA411" s="4">
         <v>45231</v>
       </c>
       <c r="AB411" s="2">
@@ -42741,7 +42748,7 @@
       <c r="A412" s="2">
         <v>30219</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412" s="4">
         <v>45231</v>
       </c>
       <c r="C412" s="2" t="s">
@@ -42813,10 +42820,10 @@
       <c r="Y412" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z412" s="3">
+      <c r="Z412" s="4">
         <v>45231</v>
       </c>
-      <c r="AA412" s="3">
+      <c r="AA412" s="4">
         <v>45233</v>
       </c>
       <c r="AB412" s="2">
@@ -42837,7 +42844,7 @@
       <c r="A413" s="2">
         <v>30218</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413" s="4">
         <v>45231</v>
       </c>
       <c r="C413" s="2" t="s">
@@ -42909,10 +42916,10 @@
       <c r="Y413" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Z413" s="3">
+      <c r="Z413" s="4">
         <v>45231</v>
       </c>
-      <c r="AA413" s="3">
+      <c r="AA413" s="4">
         <v>45233</v>
       </c>
       <c r="AB413" s="2">
@@ -42938,7 +42945,7 @@
       <c r="A416" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B416" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -42952,7 +42959,7 @@
       <c r="A417" s="2">
         <v>5527</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417" s="4">
         <v>45238</v>
       </c>
       <c r="C417" s="2" t="s">
@@ -42966,7 +42973,7 @@
       <c r="A418" s="2">
         <v>5526</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418" s="4">
         <v>45238</v>
       </c>
       <c r="C418" s="2" t="s">
@@ -42980,7 +42987,7 @@
       <c r="A419" s="2">
         <v>5525</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419" s="4">
         <v>45238</v>
       </c>
       <c r="C419" s="2" t="s">
@@ -42994,7 +43001,7 @@
       <c r="A420" s="2">
         <v>5524</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420" s="4">
         <v>45238</v>
       </c>
       <c r="C420" s="2" t="s">
@@ -43008,7 +43015,7 @@
       <c r="A421" s="2">
         <v>5523</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421" s="4">
         <v>45238</v>
       </c>
       <c r="C421" s="2" t="s">
@@ -43022,7 +43029,7 @@
       <c r="A422" s="2">
         <v>5522</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422" s="4">
         <v>45238</v>
       </c>
       <c r="C422" s="2" t="s">
@@ -43036,7 +43043,7 @@
       <c r="A423" s="2">
         <v>5521</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423" s="4">
         <v>45238</v>
       </c>
       <c r="C423" s="2" t="s">
@@ -43050,7 +43057,7 @@
       <c r="A424" s="2">
         <v>5520</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424" s="4">
         <v>45238</v>
       </c>
       <c r="C424" s="2" t="s">
@@ -43064,7 +43071,7 @@
       <c r="A425" s="2">
         <v>5519</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425" s="4">
         <v>45238</v>
       </c>
       <c r="C425" s="2" t="s">
@@ -43078,7 +43085,7 @@
       <c r="A426" s="2">
         <v>5518</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426" s="4">
         <v>45238</v>
       </c>
       <c r="C426" s="2" t="s">
@@ -43092,7 +43099,7 @@
       <c r="A427" s="2">
         <v>5517</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427" s="4">
         <v>45238</v>
       </c>
       <c r="C427" s="2" t="s">
@@ -43106,7 +43113,7 @@
       <c r="A428" s="2">
         <v>5516</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428" s="4">
         <v>45238</v>
       </c>
       <c r="C428" s="2" t="s">
@@ -43120,7 +43127,7 @@
       <c r="A429" s="2">
         <v>5515</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429" s="4">
         <v>45237</v>
       </c>
       <c r="C429" s="2" t="s">
@@ -43134,7 +43141,7 @@
       <c r="A430" s="2">
         <v>5514</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430" s="4">
         <v>45237</v>
       </c>
       <c r="C430" s="2" t="s">
@@ -43148,7 +43155,7 @@
       <c r="A431" s="2">
         <v>5513</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431" s="4">
         <v>45237</v>
       </c>
       <c r="C431" s="2" t="s">
@@ -43162,7 +43169,7 @@
       <c r="A432" s="2">
         <v>5512</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432" s="4">
         <v>45237</v>
       </c>
       <c r="C432" s="2" t="s">
@@ -43176,7 +43183,7 @@
       <c r="A433" s="2">
         <v>5511</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433" s="4">
         <v>45237</v>
       </c>
       <c r="C433" s="2" t="s">
@@ -43190,7 +43197,7 @@
       <c r="A434" s="2">
         <v>5510</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434" s="4">
         <v>45237</v>
       </c>
       <c r="C434" s="2" t="s">
@@ -43204,7 +43211,7 @@
       <c r="A435" s="2">
         <v>5509</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435" s="4">
         <v>45237</v>
       </c>
       <c r="C435" s="2" t="s">
@@ -43218,7 +43225,7 @@
       <c r="A436" s="2">
         <v>5508</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436" s="4">
         <v>45237</v>
       </c>
       <c r="C436" s="2" t="s">
@@ -43232,7 +43239,7 @@
       <c r="A437" s="2">
         <v>5507</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437" s="4">
         <v>45237</v>
       </c>
       <c r="C437" s="2" t="s">
@@ -43246,7 +43253,7 @@
       <c r="A438" s="2">
         <v>5506</v>
       </c>
-      <c r="B438" s="3">
+      <c r="B438" s="4">
         <v>45237</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -43260,7 +43267,7 @@
       <c r="A439" s="2">
         <v>5505</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439" s="4">
         <v>45237</v>
       </c>
       <c r="C439" s="2" t="s">
@@ -43274,7 +43281,7 @@
       <c r="A440" s="2">
         <v>5504</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440" s="4">
         <v>45236</v>
       </c>
       <c r="C440" s="2" t="s">
@@ -43288,7 +43295,7 @@
       <c r="A441" s="2">
         <v>5503</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B441" s="4">
         <v>45236</v>
       </c>
       <c r="C441" s="2" t="s">
@@ -43302,7 +43309,7 @@
       <c r="A442" s="2">
         <v>5502</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442" s="4">
         <v>45236</v>
       </c>
       <c r="C442" s="2" t="s">
@@ -43316,7 +43323,7 @@
       <c r="A443" s="2">
         <v>5501</v>
       </c>
-      <c r="B443" s="3">
+      <c r="B443" s="4">
         <v>45236</v>
       </c>
       <c r="C443" s="2" t="s">
@@ -43330,7 +43337,7 @@
       <c r="A444" s="2">
         <v>5500</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444" s="4">
         <v>45236</v>
       </c>
       <c r="C444" s="2" t="s">
@@ -43344,7 +43351,7 @@
       <c r="A445" s="2">
         <v>5499</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445" s="4">
         <v>45236</v>
       </c>
       <c r="C445" s="2" t="s">
@@ -43358,7 +43365,7 @@
       <c r="A446" s="2">
         <v>5498</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446" s="4">
         <v>45236</v>
       </c>
       <c r="C446" s="2" t="s">
@@ -43372,7 +43379,7 @@
       <c r="A447" s="2">
         <v>5497</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447" s="4">
         <v>45236</v>
       </c>
       <c r="C447" s="2" t="s">
@@ -43386,7 +43393,7 @@
       <c r="A448" s="2">
         <v>5496</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448" s="4">
         <v>45234</v>
       </c>
       <c r="C448" s="2" t="s">
@@ -43400,7 +43407,7 @@
       <c r="A449" s="2">
         <v>5495</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B449" s="4">
         <v>45234</v>
       </c>
       <c r="C449" s="2" t="s">
@@ -43414,7 +43421,7 @@
       <c r="A450" s="2">
         <v>5494</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B450" s="4">
         <v>45234</v>
       </c>
       <c r="C450" s="2" t="s">
@@ -43428,7 +43435,7 @@
       <c r="A451" s="2">
         <v>5493</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B451" s="4">
         <v>45233</v>
       </c>
       <c r="C451" s="2" t="s">
@@ -43442,7 +43449,7 @@
       <c r="A452" s="2">
         <v>5492</v>
       </c>
-      <c r="B452" s="3">
+      <c r="B452" s="4">
         <v>45233</v>
       </c>
       <c r="C452" s="2" t="s">
@@ -43456,7 +43463,7 @@
       <c r="A453" s="2">
         <v>5491</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B453" s="4">
         <v>45233</v>
       </c>
       <c r="C453" s="2" t="s">
@@ -43470,7 +43477,7 @@
       <c r="A454" s="2">
         <v>5490</v>
       </c>
-      <c r="B454" s="3">
+      <c r="B454" s="4">
         <v>45233</v>
       </c>
       <c r="C454" s="2" t="s">
@@ -43484,7 +43491,7 @@
       <c r="A455" s="2">
         <v>5489</v>
       </c>
-      <c r="B455" s="3">
+      <c r="B455" s="4">
         <v>45233</v>
       </c>
       <c r="C455" s="2" t="s">
@@ -43498,7 +43505,7 @@
       <c r="A456" s="2">
         <v>5488</v>
       </c>
-      <c r="B456" s="3">
+      <c r="B456" s="4">
         <v>45232</v>
       </c>
       <c r="C456" s="2" t="s">
@@ -43512,7 +43519,7 @@
       <c r="A457" s="2">
         <v>5487</v>
       </c>
-      <c r="B457" s="3">
+      <c r="B457" s="4">
         <v>45232</v>
       </c>
       <c r="C457" s="2" t="s">
@@ -43526,7 +43533,7 @@
       <c r="A458" s="2">
         <v>5486</v>
       </c>
-      <c r="B458" s="3">
+      <c r="B458" s="4">
         <v>45232</v>
       </c>
       <c r="C458" s="2" t="s">
@@ -43540,7 +43547,7 @@
       <c r="A459" s="2">
         <v>5485</v>
       </c>
-      <c r="B459" s="3">
+      <c r="B459" s="4">
         <v>45232</v>
       </c>
       <c r="C459" s="2" t="s">
@@ -43554,7 +43561,7 @@
       <c r="A460" s="2">
         <v>5484</v>
       </c>
-      <c r="B460" s="3">
+      <c r="B460" s="4">
         <v>45232</v>
       </c>
       <c r="C460" s="2" t="s">
@@ -43568,7 +43575,7 @@
       <c r="A461" s="2">
         <v>5483</v>
       </c>
-      <c r="B461" s="3">
+      <c r="B461" s="4">
         <v>45232</v>
       </c>
       <c r="C461" s="2" t="s">
@@ -43582,7 +43589,7 @@
       <c r="A462" s="2">
         <v>5482</v>
       </c>
-      <c r="B462" s="3">
+      <c r="B462" s="4">
         <v>45232</v>
       </c>
       <c r="C462" s="2" t="s">
@@ -43596,7 +43603,7 @@
       <c r="A463" s="2">
         <v>5481</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463" s="4">
         <v>45232</v>
       </c>
       <c r="C463" s="2" t="s">
@@ -43610,7 +43617,7 @@
       <c r="A464" s="2">
         <v>5480</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464" s="4">
         <v>45232</v>
       </c>
       <c r="C464" s="2" t="s">
@@ -43624,7 +43631,7 @@
       <c r="A465" s="2">
         <v>5479</v>
       </c>
-      <c r="B465" s="3">
+      <c r="B465" s="4">
         <v>45232</v>
       </c>
       <c r="C465" s="2" t="s">
@@ -43638,7 +43645,7 @@
       <c r="A466" s="2">
         <v>5478</v>
       </c>
-      <c r="B466" s="3">
+      <c r="B466" s="4">
         <v>45232</v>
       </c>
       <c r="C466" s="2" t="s">
@@ -43652,7 +43659,7 @@
       <c r="A467" s="2">
         <v>5477</v>
       </c>
-      <c r="B467" s="3">
+      <c r="B467" s="4">
         <v>45232</v>
       </c>
       <c r="C467" s="2" t="s">
@@ -43666,7 +43673,7 @@
       <c r="A468" s="2">
         <v>5476</v>
       </c>
-      <c r="B468" s="3">
+      <c r="B468" s="4">
         <v>45232</v>
       </c>
       <c r="C468" s="2" t="s">
@@ -43680,7 +43687,7 @@
       <c r="A469" s="2">
         <v>5475</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469" s="4">
         <v>45232</v>
       </c>
       <c r="C469" s="2" t="s">
@@ -43694,7 +43701,7 @@
       <c r="A470" s="2">
         <v>5474</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470" s="4">
         <v>45231</v>
       </c>
       <c r="C470" s="2" t="s">
@@ -43708,7 +43715,7 @@
       <c r="A471" s="2">
         <v>5473</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B471" s="4">
         <v>45231</v>
       </c>
       <c r="C471" s="2" t="s">
@@ -43722,7 +43729,7 @@
       <c r="A472" s="2">
         <v>5472</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B472" s="4">
         <v>45231</v>
       </c>
       <c r="C472" s="2" t="s">
@@ -43736,7 +43743,7 @@
       <c r="A473" s="2">
         <v>5471</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B473" s="4">
         <v>45231</v>
       </c>
       <c r="C473" s="2" t="s">
@@ -43750,7 +43757,7 @@
       <c r="A474" s="2">
         <v>5470</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B474" s="4">
         <v>45231</v>
       </c>
       <c r="C474" s="2" t="s">
@@ -43764,7 +43771,7 @@
       <c r="A475" s="2">
         <v>5469</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475" s="4">
         <v>45231</v>
       </c>
       <c r="C475" s="2" t="s">
@@ -43778,7 +43785,7 @@
       <c r="A476" s="2">
         <v>5468</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476" s="4">
         <v>45231</v>
       </c>
       <c r="C476" s="2" t="s">
@@ -43792,7 +43799,7 @@
       <c r="A477" s="2">
         <v>5467</v>
       </c>
-      <c r="B477" s="3">
+      <c r="B477" s="4">
         <v>45231</v>
       </c>
       <c r="C477" s="2" t="s">
@@ -43806,7 +43813,7 @@
       <c r="A478" s="2">
         <v>5466</v>
       </c>
-      <c r="B478" s="3">
+      <c r="B478" s="4">
         <v>45231</v>
       </c>
       <c r="C478" s="2" t="s">
@@ -43820,7 +43827,7 @@
       <c r="A479" s="2">
         <v>5465</v>
       </c>
-      <c r="B479" s="3">
+      <c r="B479" s="4">
         <v>45231</v>
       </c>
       <c r="C479" s="2" t="s">
@@ -43834,7 +43841,7 @@
       <c r="A480" s="2">
         <v>5464</v>
       </c>
-      <c r="B480" s="3">
+      <c r="B480" s="4">
         <v>45231</v>
       </c>
       <c r="C480" s="2" t="s">
@@ -43848,7 +43855,7 @@
       <c r="A481" s="2">
         <v>5463</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481" s="4">
         <v>45231</v>
       </c>
       <c r="C481" s="2" t="s">
@@ -43862,7 +43869,7 @@
       <c r="A482" s="2">
         <v>5462</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482" s="4">
         <v>45231</v>
       </c>
       <c r="C482" s="2" t="s">
@@ -43876,7 +43883,7 @@
       <c r="A483" s="2">
         <v>5461</v>
       </c>
-      <c r="B483" s="3">
+      <c r="B483" s="4">
         <v>45231</v>
       </c>
       <c r="C483" s="2" t="s">
@@ -43890,7 +43897,7 @@
       <c r="A484" s="2">
         <v>5460</v>
       </c>
-      <c r="B484" s="3">
+      <c r="B484" s="4">
         <v>45231</v>
       </c>
       <c r="C484" s="2" t="s">
